--- a/Sky5_Kitchen_Admin_Kit.xlsx
+++ b/Sky5_Kitchen_Admin_Kit.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Master Menu" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Daily SOP Checklist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sales Register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Staff Attendance" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -57,6 +58,12 @@
         <bgColor rgb="0024963F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -79,6 +86,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1750,4 +1760,726 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Employee Name</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Check-In Time</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Check-Out Time</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Daily Wage (INR)</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Total Pay (INR)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EMP-001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Staff Member 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G2">
+        <f>(F2-E2)*24</f>
+        <v/>
+      </c>
+      <c r="H2" t="n">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EMP-002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Staff Member 2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G3">
+        <f>(F3-E3)*24</f>
+        <v/>
+      </c>
+      <c r="H3" t="n">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <f>G3*H3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EMP-003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Staff Member 3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G4">
+        <f>(F4-E4)*24</f>
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v>500</v>
+      </c>
+      <c r="I4">
+        <f>G4*H4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EMP-004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Staff Member 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G5">
+        <f>(F5-E5)*24</f>
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v>500</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EMP-005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Staff Member 5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G6">
+        <f>(F6-E6)*24</f>
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <f>G6*H6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EMP-006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Staff Member 6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G7">
+        <f>(F7-E7)*24</f>
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <f>G7*H7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EMP-007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Staff Member 7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G8">
+        <f>(F8-E8)*24</f>
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I8">
+        <f>G8*H8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EMP-008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Staff Member 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G9">
+        <f>(F9-E9)*24</f>
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v>500</v>
+      </c>
+      <c r="I9">
+        <f>G9*H9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EMP-009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Staff Member 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G10">
+        <f>(F10-E10)*24</f>
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v>500</v>
+      </c>
+      <c r="I10">
+        <f>G10*H10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EMP-010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Staff Member 10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G11">
+        <f>(F11-E11)*24</f>
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <f>G11*H11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EMP-011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Staff Member 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G12">
+        <f>(F12-E12)*24</f>
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v>500</v>
+      </c>
+      <c r="I12">
+        <f>G12*H12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EMP-012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Staff Member 12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G13">
+        <f>(F13-E13)*24</f>
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v>500</v>
+      </c>
+      <c r="I13">
+        <f>G13*H13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EMP-013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Staff Member 13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G14">
+        <f>(F14-E14)*24</f>
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v>500</v>
+      </c>
+      <c r="I14">
+        <f>G14*H14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EMP-014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Staff Member 14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G15">
+        <f>(F15-E15)*24</f>
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v>500</v>
+      </c>
+      <c r="I15">
+        <f>G15*H15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EMP-015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Staff Member 15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G16">
+        <f>(F16-E16)*24</f>
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v>500</v>
+      </c>
+      <c r="I16">
+        <f>G16*H16</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Sky5_Kitchen_Admin_Kit.xlsx
+++ b/Sky5_Kitchen_Admin_Kit.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Master Menu" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Daily SOP Checklist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sales Register" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Staff Attendance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Staff Attendance &amp; Timesheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1768,7 +1768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,13 +1778,18 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1810,25 +1815,50 @@
       </c>
       <c r="E1" s="4" t="inlineStr">
         <is>
+          <t>Shift Type</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
           <t>Check-In Time</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Check-Out Time</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
-        </is>
-      </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
+          <t>Break (Mins)</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Gross Hours</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>Net Work Hours</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>Overtime (Hrs)</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
           <t>Daily Wage (INR)</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>Total Pay (INR)</t>
         </is>
@@ -1847,34 +1877,51 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Staff Member 1</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Head Chef</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G2">
-        <f>(F2-E2)*24</f>
-        <v/>
+          <t>09:26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18:44</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>500</v>
-      </c>
-      <c r="I2">
-        <f>G2*H2</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="3">
@@ -1890,34 +1937,51 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Staff Member 2</t>
+          <t>Sunil Singh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Sous Chef</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G3">
-        <f>(F3-E3)*24</f>
-        <v/>
+          <t>09:03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18:08</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>500</v>
-      </c>
-      <c r="I3">
-        <f>G3*H3</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>900</v>
+      </c>
+      <c r="N3" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -1933,34 +1997,51 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Staff Member 3</t>
+          <t>Amit Verma</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Commi 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G4">
-        <f>(F4-E4)*24</f>
-        <v/>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>22:56</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
-      </c>
-      <c r="I4">
-        <f>G4*H4</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>700</v>
+      </c>
+      <c r="N4" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="5">
@@ -1976,34 +2057,51 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Staff Member 4</t>
+          <t>Vikram Das</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Commi 2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G5">
-        <f>(F5-E5)*24</f>
-        <v/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
-      </c>
-      <c r="I5">
-        <f>G5*H5</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>600</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2019,34 +2117,51 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Staff Member 5</t>
+          <t>Suresh Yadav</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Kitchen Helper</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G6">
-        <f>(F6-E6)*24</f>
-        <v/>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>23:14</t>
+        </is>
       </c>
       <c r="H6" t="n">
+        <v>45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>500</v>
       </c>
-      <c r="I6">
-        <f>G6*H6</f>
-        <v/>
+      <c r="N6" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -2062,34 +2177,51 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Staff Member 6</t>
+          <t>Deepak Koi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Kitchen Helper</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G7">
-        <f>(F7-E7)*24</f>
-        <v/>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
       </c>
       <c r="H7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>500</v>
       </c>
-      <c r="I7">
-        <f>G7*H7</f>
-        <v/>
+      <c r="N7" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -2105,34 +2237,51 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Staff Member 7</t>
+          <t>Rohan Mehta</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Store Keeper</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G8">
-        <f>(F8-E8)*24</f>
-        <v/>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
-      </c>
-      <c r="I8">
-        <f>G8*H8</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>800</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -2148,34 +2297,51 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Staff Member 8</t>
+          <t>Priya Sharma</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G9">
-        <f>(F9-E9)*24</f>
-        <v/>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
-      </c>
-      <c r="I9">
-        <f>G9*H9</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N9" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -2191,34 +2357,51 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Staff Member 9</t>
+          <t>Karan Johar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Delivery Partner</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G10">
-        <f>(F10-E10)*24</f>
-        <v/>
+          <t>09:04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18:49</t>
+        </is>
       </c>
       <c r="H10" t="n">
+        <v>45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>500</v>
       </c>
-      <c r="I10">
-        <f>G10*H10</f>
-        <v/>
+      <c r="N10" t="n">
+        <v>501.18</v>
       </c>
     </row>
     <row r="11">
@@ -2234,249 +2417,3651 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Staff Member 10</t>
+          <t>Arjun Rampal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Delivery Partner</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G11">
-        <f>(F11-E11)*24</f>
-        <v/>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00:47</t>
+        </is>
       </c>
       <c r="H11" t="n">
+        <v>45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>500</v>
       </c>
-      <c r="I11">
-        <f>G11*H11</f>
-        <v/>
+      <c r="N11" t="n">
+        <v>549.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EMP-011</t>
+          <t>EMP-001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Staff Member 11</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Head Chef</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G12">
-        <f>(F12-E12)*24</f>
-        <v/>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
-      </c>
-      <c r="I12">
-        <f>G12*H12</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1318.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EMP-012</t>
+          <t>EMP-002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Staff Member 12</t>
+          <t>Sunil Singh</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Sous Chef</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G13">
-        <f>(F13-E13)*24</f>
-        <v/>
+          <t>09:16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>500</v>
-      </c>
-      <c r="I13">
-        <f>G13*H13</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>900</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1001.61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMP-013</t>
+          <t>EMP-003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Staff Member 13</t>
+          <t>Amit Verma</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Commi 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G14">
-        <f>(F14-E14)*24</f>
-        <v/>
+          <t>09:22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>500</v>
-      </c>
-      <c r="I14">
-        <f>G14*H14</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>700</v>
+      </c>
+      <c r="N14" t="n">
+        <v>712.5700000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EMP-014</t>
+          <t>EMP-004</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Staff Member 14</t>
+          <t>Vikram Das</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Commi 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G15">
-        <f>(F15-E15)*24</f>
-        <v/>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>500</v>
-      </c>
-      <c r="I15">
-        <f>G15*H15</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>600</v>
+      </c>
+      <c r="N15" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EMP-015</t>
+          <t>EMP-005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Staff Member 15</t>
+          <t>Suresh Yadav</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>Kitchen Helper</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G16">
-        <f>(F16-E16)*24</f>
-        <v/>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23:44</t>
+        </is>
       </c>
       <c r="H16" t="n">
+        <v>45</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>500</v>
       </c>
-      <c r="I16">
-        <f>G16*H16</f>
-        <v/>
+      <c r="N16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EMP-006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Deepak Koi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>09:21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>45</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>500</v>
+      </c>
+      <c r="N17" t="n">
+        <v>518.01</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EMP-007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rohan Mehta</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Store Keeper</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>09:26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>800</v>
+      </c>
+      <c r="N18" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EMP-008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>09:21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N19" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EMP-009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Karan Johar</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23:50</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>500</v>
+      </c>
+      <c r="N20" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EMP-010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arjun Rampal</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>18:14</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>45</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>500</v>
+      </c>
+      <c r="N21" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EMP-001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Head Chef</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>18:27</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>45</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EMP-002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sunil Singh</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sous Chef</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>23:35</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>45</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>900</v>
+      </c>
+      <c r="N23" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EMP-003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Amit Verma</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Commi 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>22:55</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>45</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>700</v>
+      </c>
+      <c r="N24" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EMP-004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Vikram Das</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Commi 2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>09:05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>45</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>600</v>
+      </c>
+      <c r="N25" t="n">
+        <v>641.04</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EMP-005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Suresh Yadav</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>09:14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>45</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>500</v>
+      </c>
+      <c r="N26" t="n">
+        <v>525.89</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMP-006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Deepak Koi</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>18:12</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>45</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>500</v>
+      </c>
+      <c r="N27" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EMP-007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rohan Mehta</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Store Keeper</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>09:16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>18:53</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>45</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>800</v>
+      </c>
+      <c r="N28" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EMP-008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>45</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMP-009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Karan Johar</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>14:01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>45</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>500</v>
+      </c>
+      <c r="N30" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EMP-010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Arjun Rampal</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>45</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>500</v>
+      </c>
+      <c r="N31" t="n">
+        <v>539.04</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EMP-001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Head Chef</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>00:41</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>45</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1303.92</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EMP-002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sunil Singh</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sous Chef</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>09:13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>45</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>900</v>
+      </c>
+      <c r="N33" t="n">
+        <v>967.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EMP-003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Amit Verma</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Commi 1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>45</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>700</v>
+      </c>
+      <c r="N34" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EMP-004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Vikram Das</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Commi 2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>09:19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>13:49</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>15</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>600</v>
+      </c>
+      <c r="N35" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EMP-005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Suresh Yadav</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>15</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>500</v>
+      </c>
+      <c r="N36" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EMP-006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Deepak Koi</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>09:04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>45</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>500</v>
+      </c>
+      <c r="N37" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EMP-007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rohan Mehta</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Store Keeper</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>22:54</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>800</v>
+      </c>
+      <c r="N38" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EMP-008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>18:18</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>45</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EMP-009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Karan Johar</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14:09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>00:13</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>45</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>500</v>
+      </c>
+      <c r="N40" t="n">
+        <v>527.17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EMP-010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Arjun Rampal</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>23:08</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>45</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>500</v>
+      </c>
+      <c r="N41" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EMP-001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Head Chef</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>22:52</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>45</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EMP-002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sunil Singh</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sous Chef</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>900</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EMP-003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Amit Verma</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Commi 1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>45</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>700</v>
+      </c>
+      <c r="N44" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>EMP-004</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Vikram Das</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Commi 2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>09:22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>18:49</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>45</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>600</v>
+      </c>
+      <c r="N45" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EMP-005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Suresh Yadav</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>09:13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>45</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>500</v>
+      </c>
+      <c r="N46" t="n">
+        <v>512.41</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>EMP-006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Deepak Koi</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>500</v>
+      </c>
+      <c r="N47" t="n">
+        <v>556.79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>EMP-007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rohan Mehta</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Store Keeper</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>45</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>800</v>
+      </c>
+      <c r="N48" t="n">
+        <v>897.14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>EMP-008</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>09:19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>13:49</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>15</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N49" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>EMP-009</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Karan Johar</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>23:03</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>45</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>500</v>
+      </c>
+      <c r="N50" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>EMP-010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Arjun Rampal</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>09:26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>15</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>500</v>
+      </c>
+      <c r="N51" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>EMP-001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Head Chef</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>45</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>EMP-002</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sunil Singh</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sous Chef</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>23:16</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>45</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>900</v>
+      </c>
+      <c r="N53" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>EMP-003</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Amit Verma</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Commi 1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>23:08</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>45</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>700</v>
+      </c>
+      <c r="N54" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>EMP-004</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Vikram Das</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Commi 2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>23:23</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>45</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>600</v>
+      </c>
+      <c r="N55" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>EMP-005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Suresh Yadav</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>500</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>EMP-006</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Deepak Koi</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>14:28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>23:37</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>45</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>500</v>
+      </c>
+      <c r="N57" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>EMP-007</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rohan Mehta</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Store Keeper</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>09:17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>45</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>800</v>
+      </c>
+      <c r="N58" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>EMP-008</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>15</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N59" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>EMP-009</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Karan Johar</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>09:29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>45</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>500</v>
+      </c>
+      <c r="N60" t="n">
+        <v>533.87</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>EMP-010</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Arjun Rampal</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>09:03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>45</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>500</v>
+      </c>
+      <c r="N61" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>EMP-001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Head Chef</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>14:28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N62" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>EMP-002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sunil Singh</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sous Chef</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>45</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>900</v>
+      </c>
+      <c r="N63" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>EMP-003</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Amit Verma</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Commi 1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>23:49</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>45</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>700</v>
+      </c>
+      <c r="N64" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>EMP-004</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Vikram Das</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Commi 2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>600</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>EMP-005</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Suresh Yadav</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>23:03</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>45</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>500</v>
+      </c>
+      <c r="N66" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>EMP-006</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Deepak Koi</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Kitchen Helper</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>45</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>500</v>
+      </c>
+      <c r="N67" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>EMP-007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rohan Mehta</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Store Keeper</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>14:12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>23:40</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>45</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>800</v>
+      </c>
+      <c r="N68" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>EMP-008</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>45</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>EMP-009</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Karan Johar</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>09:03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>45</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J70" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>500</v>
+      </c>
+      <c r="N70" t="n">
+        <v>504.25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>EMP-010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Arjun Rampal</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Delivery Partner</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>23:22</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>45</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>500</v>
+      </c>
+      <c r="N71" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Sky5_Kitchen_Admin_Kit.xlsx
+++ b/Sky5_Kitchen_Admin_Kit.xlsx
@@ -1892,25 +1892,25 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>9.31</v>
+        <v>10.42</v>
       </c>
       <c r="J2" t="n">
-        <v>8.56</v>
+        <v>9.67</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>1200</v>
       </c>
       <c r="N2" t="n">
-        <v>1200</v>
+        <v>1333.16</v>
       </c>
     </row>
     <row r="3">
@@ -1947,27 +1947,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>9.09</v>
+        <v>8.92</v>
       </c>
       <c r="J3" t="n">
-        <v>8.34</v>
+        <v>8.17</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2012,25 +2012,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22:56</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>8.9</v>
+        <v>9.91</v>
       </c>
       <c r="J4" t="n">
-        <v>8.15</v>
+        <v>9.16</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>700</v>
       </c>
       <c r="N4" t="n">
-        <v>700</v>
+        <v>718.16</v>
       </c>
     </row>
     <row r="5">
@@ -2132,22 +2132,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23:14</t>
+          <t>23:45</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>8.859999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="J6" t="n">
-        <v>8.109999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2187,30 +2187,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23:02</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>8.68</v>
+        <v>10.1</v>
       </c>
       <c r="J7" t="n">
-        <v>7.93</v>
+        <v>9.35</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>500</v>
+        <v>529.55</v>
       </c>
     </row>
     <row r="8">
@@ -2247,41 +2247,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:24</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>10.04</v>
       </c>
       <c r="J8" t="n">
-        <v>4.25</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>800</v>
       </c>
       <c r="N8" t="n">
-        <v>400</v>
+        <v>838.16</v>
       </c>
     </row>
     <row r="9">
@@ -2312,36 +2312,36 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>4.25</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>1500</v>
       </c>
       <c r="N9" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10">
@@ -2372,36 +2372,36 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18:49</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>9.76</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>9.01</v>
+        <v>4.25</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>500</v>
       </c>
       <c r="N10" t="n">
-        <v>501.18</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -2427,30 +2427,30 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:47</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>10.35</v>
+        <v>8.92</v>
       </c>
       <c r="J11" t="n">
-        <v>9.6</v>
+        <v>8.17</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>500</v>
       </c>
       <c r="N11" t="n">
-        <v>549.83</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
@@ -2497,20 +2497,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>45</v>
       </c>
       <c r="I12" t="n">
-        <v>10.34</v>
+        <v>10.45</v>
       </c>
       <c r="J12" t="n">
-        <v>9.59</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>1200</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.42</v>
+        <v>1339.59</v>
       </c>
     </row>
     <row r="13">
@@ -2552,25 +2552,25 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>45</v>
       </c>
       <c r="I13" t="n">
-        <v>10.43</v>
+        <v>9.44</v>
       </c>
       <c r="J13" t="n">
-        <v>9.68</v>
+        <v>8.69</v>
       </c>
       <c r="K13" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>900</v>
       </c>
       <c r="N13" t="n">
-        <v>1001.61</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14">
@@ -2607,30 +2607,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19:13</t>
+          <t>00:36</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>9.859999999999999</v>
+        <v>10.31</v>
       </c>
       <c r="J14" t="n">
-        <v>9.109999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="K14" t="n">
-        <v>0.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>700</v>
       </c>
       <c r="N14" t="n">
-        <v>712.5700000000001</v>
+        <v>765.88</v>
       </c>
     </row>
     <row r="15">
@@ -2672,22 +2672,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>45</v>
       </c>
       <c r="I15" t="n">
-        <v>8.5</v>
+        <v>8.52</v>
       </c>
       <c r="J15" t="n">
-        <v>7.75</v>
+        <v>7.77</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2732,25 +2732,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23:44</t>
+          <t>00:23</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>9.58</v>
+        <v>10.25</v>
       </c>
       <c r="J16" t="n">
-        <v>8.83</v>
+        <v>9.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>500</v>
       </c>
       <c r="N16" t="n">
-        <v>500</v>
+        <v>541.47</v>
       </c>
     </row>
     <row r="17">
@@ -2787,30 +2787,30 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>00:27</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>45</v>
       </c>
       <c r="I17" t="n">
-        <v>9.970000000000001</v>
+        <v>10.41</v>
       </c>
       <c r="J17" t="n">
-        <v>9.220000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="K17" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>500</v>
       </c>
       <c r="N17" t="n">
-        <v>518.01</v>
+        <v>555.3200000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2847,41 +2847,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.25</v>
+        <v>8.75</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>800</v>
       </c>
       <c r="N18" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19">
@@ -2907,41 +2907,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>00:12</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>4.25</v>
+        <v>9.25</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1500</v>
       </c>
       <c r="N19" t="n">
-        <v>750</v>
+        <v>1563.61</v>
       </c>
     </row>
     <row r="20">
@@ -2967,27 +2967,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>09:19</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>45</v>
       </c>
       <c r="I20" t="n">
-        <v>9.52</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>8.77</v>
+        <v>7.79</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -3032,36 +3032,36 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>9.109999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>8.359999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>500</v>
       </c>
       <c r="N21" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22">
@@ -3092,22 +3092,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>9.32</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>8.57</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3152,22 +3152,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23:35</t>
+          <t>22:57</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>45</v>
       </c>
       <c r="I23" t="n">
-        <v>9.52</v>
+        <v>8.77</v>
       </c>
       <c r="J23" t="n">
-        <v>8.77</v>
+        <v>8.02</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3207,27 +3207,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22:55</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>45</v>
       </c>
       <c r="I24" t="n">
-        <v>8.67</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>7.92</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -3272,25 +3272,25 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09:05</t>
+          <t>09:06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>10.16</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>9.41</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>600</v>
       </c>
       <c r="N25" t="n">
-        <v>641.04</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3327,30 +3327,30 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>23:24</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>45</v>
       </c>
       <c r="I26" t="n">
-        <v>10.06</v>
+        <v>9.16</v>
       </c>
       <c r="J26" t="n">
-        <v>9.31</v>
+        <v>8.41</v>
       </c>
       <c r="K26" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>500</v>
       </c>
       <c r="N26" t="n">
-        <v>525.89</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27">
@@ -3392,25 +3392,25 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>45</v>
       </c>
       <c r="I27" t="n">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J27" t="n">
-        <v>7.95</v>
+        <v>9.75</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>500</v>
       </c>
       <c r="N27" t="n">
-        <v>500</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="28">
@@ -3447,30 +3447,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18:53</t>
+          <t>00:17</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>45</v>
       </c>
       <c r="I28" t="n">
-        <v>9.619999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="J28" t="n">
-        <v>8.869999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>800</v>
       </c>
       <c r="N28" t="n">
-        <v>800</v>
+        <v>848.35</v>
       </c>
     </row>
     <row r="29">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>00:14</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>45</v>
       </c>
       <c r="I29" t="n">
-        <v>9.17</v>
+        <v>9.76</v>
       </c>
       <c r="J29" t="n">
-        <v>8.42</v>
+        <v>9.01</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>1500</v>
       </c>
       <c r="N29" t="n">
-        <v>1500</v>
+        <v>1501.8</v>
       </c>
     </row>
     <row r="30">
@@ -3567,41 +3567,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23:12</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.19</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.44</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>500</v>
       </c>
       <c r="N30" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3627,30 +3627,30 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>23:20</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>45</v>
       </c>
       <c r="I31" t="n">
-        <v>10.22</v>
+        <v>9.27</v>
       </c>
       <c r="J31" t="n">
-        <v>9.470000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="K31" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>500</v>
       </c>
       <c r="N31" t="n">
-        <v>539.04</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
@@ -3697,20 +3697,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>23:04</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>45</v>
       </c>
       <c r="I32" t="n">
-        <v>10.27</v>
+        <v>8.66</v>
       </c>
       <c r="J32" t="n">
-        <v>9.52</v>
+        <v>7.91</v>
       </c>
       <c r="K32" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>1200</v>
       </c>
       <c r="N32" t="n">
-        <v>1303.92</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33">
@@ -3747,30 +3747,30 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09:13</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>22:56</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>45</v>
       </c>
       <c r="I33" t="n">
-        <v>10.2</v>
+        <v>8.93</v>
       </c>
       <c r="J33" t="n">
-        <v>9.449999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="K33" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>900</v>
       </c>
       <c r="N33" t="n">
-        <v>967.4</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34">
@@ -3807,30 +3807,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>45</v>
       </c>
       <c r="I34" t="n">
-        <v>9.31</v>
+        <v>9.84</v>
       </c>
       <c r="J34" t="n">
-        <v>8.56</v>
+        <v>9.09</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>700</v>
       </c>
       <c r="N34" t="n">
-        <v>700</v>
+        <v>710.7</v>
       </c>
     </row>
     <row r="35">
@@ -3867,41 +3867,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09:19</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>22:59</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>8.66</v>
       </c>
       <c r="J35" t="n">
-        <v>4.25</v>
+        <v>7.91</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>600</v>
       </c>
       <c r="N35" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36">
@@ -3927,17 +3927,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:13</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3992,36 +3992,36 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:11</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>8.449999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>500</v>
       </c>
       <c r="N37" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
@@ -4052,36 +4052,36 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22:54</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>8.789999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>8.039999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>800</v>
       </c>
       <c r="N38" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39">
@@ -4107,27 +4107,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18:18</t>
+          <t>23:41</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>45</v>
       </c>
       <c r="I39" t="n">
-        <v>9.199999999999999</v>
+        <v>9.27</v>
       </c>
       <c r="J39" t="n">
-        <v>8.449999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4172,25 +4172,25 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>00:13</t>
+          <t>23:37</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>45</v>
       </c>
       <c r="I40" t="n">
-        <v>10.08</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>9.33</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>500</v>
       </c>
       <c r="N40" t="n">
-        <v>527.17</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41">
@@ -4232,25 +4232,25 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23:08</t>
+          <t>00:12</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>45</v>
       </c>
       <c r="I41" t="n">
-        <v>8.76</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>8.01</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>500</v>
       </c>
       <c r="N41" t="n">
-        <v>500</v>
+        <v>504.12</v>
       </c>
     </row>
     <row r="42">
@@ -4287,41 +4287,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22:52</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>8.83</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="n">
-        <v>8.08</v>
+        <v>4.25</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1200</v>
       </c>
       <c r="N42" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -4347,41 +4347,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.41</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>900</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44">
@@ -4407,27 +4407,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09:23</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>23:33</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>45</v>
       </c>
       <c r="I44" t="n">
-        <v>9.49</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>8.74</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4467,27 +4467,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18:49</t>
+          <t>23:36</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>45</v>
       </c>
       <c r="I45" t="n">
-        <v>9.470000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>8.720000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4527,30 +4527,30 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09:13</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>23:24</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>45</v>
       </c>
       <c r="I46" t="n">
-        <v>9.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>9.15</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>500</v>
       </c>
       <c r="N46" t="n">
-        <v>512.41</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
@@ -4592,25 +4592,25 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>18:41</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>45</v>
       </c>
       <c r="I47" t="n">
-        <v>10.43</v>
+        <v>9.43</v>
       </c>
       <c r="J47" t="n">
-        <v>9.68</v>
+        <v>8.68</v>
       </c>
       <c r="K47" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>500</v>
       </c>
       <c r="N47" t="n">
-        <v>556.79</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48">
@@ -4652,25 +4652,25 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:19</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>45</v>
       </c>
       <c r="I48" t="n">
-        <v>10.48</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>9.73</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>800</v>
       </c>
       <c r="N48" t="n">
-        <v>897.14</v>
+        <v>815.9400000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4712,36 +4712,36 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09:19</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>18:18</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I49" t="n">
-        <v>4.5</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>4.25</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1500</v>
       </c>
       <c r="N49" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50">
@@ -4767,27 +4767,27 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23:03</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>45</v>
       </c>
       <c r="I50" t="n">
-        <v>8.970000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>8.220000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4832,36 +4832,36 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>19:19</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I51" t="n">
-        <v>4.5</v>
+        <v>10.21</v>
       </c>
       <c r="J51" t="n">
-        <v>4.25</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>500</v>
       </c>
       <c r="N51" t="n">
-        <v>250</v>
+        <v>537.97</v>
       </c>
     </row>
     <row r="52">
@@ -4887,27 +4887,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23:02</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>45</v>
       </c>
       <c r="I52" t="n">
-        <v>8.720000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="J52" t="n">
-        <v>7.97</v>
+        <v>7.94</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4952,25 +4952,25 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23:16</t>
+          <t>23:51</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>8.970000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>8.220000000000001</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>900</v>
       </c>
       <c r="N53" t="n">
-        <v>900</v>
+        <v>905.05</v>
       </c>
     </row>
     <row r="54">
@@ -5007,27 +5007,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23:08</t>
+          <t>18:57</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>45</v>
       </c>
       <c r="I54" t="n">
-        <v>9.06</v>
+        <v>9.59</v>
       </c>
       <c r="J54" t="n">
-        <v>8.31</v>
+        <v>8.84</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -5067,27 +5067,27 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23:23</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>45</v>
       </c>
       <c r="I55" t="n">
-        <v>9.039999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>8.289999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5127,41 +5127,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>500</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>517.41</v>
       </c>
     </row>
     <row r="57">
@@ -5192,22 +5192,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23:37</t>
+          <t>23:45</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>45</v>
       </c>
       <c r="I57" t="n">
-        <v>9.16</v>
+        <v>9.59</v>
       </c>
       <c r="J57" t="n">
-        <v>8.41</v>
+        <v>8.84</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5252,22 +5252,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18:47</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>45</v>
       </c>
       <c r="I58" t="n">
-        <v>9.51</v>
+        <v>9.33</v>
       </c>
       <c r="J58" t="n">
-        <v>8.76</v>
+        <v>8.58</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5307,41 +5307,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>09:13</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I59" t="n">
-        <v>4.5</v>
+        <v>8.9</v>
       </c>
       <c r="J59" t="n">
-        <v>4.25</v>
+        <v>8.15</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>1500</v>
       </c>
       <c r="N59" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60">
@@ -5372,36 +5372,36 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I60" t="n">
-        <v>10.16</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>9.41</v>
+        <v>4.25</v>
       </c>
       <c r="K60" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>500</v>
       </c>
       <c r="N60" t="n">
-        <v>533.87</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61">
@@ -5427,27 +5427,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>23:38</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>45</v>
       </c>
       <c r="I61" t="n">
-        <v>8.630000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>7.88</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -5492,36 +5492,36 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>22:38</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>4.25</v>
+        <v>7.78</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>1200</v>
       </c>
       <c r="N62" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63">
@@ -5547,30 +5547,30 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:32</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>45</v>
       </c>
       <c r="I63" t="n">
-        <v>9.25</v>
+        <v>10.23</v>
       </c>
       <c r="J63" t="n">
-        <v>8.5</v>
+        <v>9.48</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>900</v>
       </c>
       <c r="N63" t="n">
-        <v>900</v>
+        <v>971.35</v>
       </c>
     </row>
     <row r="64">
@@ -5607,30 +5607,30 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23:49</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>45</v>
       </c>
       <c r="I64" t="n">
-        <v>9.6</v>
+        <v>10.31</v>
       </c>
       <c r="J64" t="n">
-        <v>8.85</v>
+        <v>9.56</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>700</v>
       </c>
       <c r="N64" t="n">
-        <v>700</v>
+        <v>765.65</v>
       </c>
     </row>
     <row r="65">
@@ -5667,41 +5667,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>9.81</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>600</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>605.9400000000001</v>
       </c>
     </row>
     <row r="66">
@@ -5732,25 +5732,25 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23:03</t>
+          <t>00:17</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>45</v>
       </c>
       <c r="I66" t="n">
-        <v>8.93</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>8.18</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>500</v>
       </c>
       <c r="N66" t="n">
-        <v>500</v>
+        <v>504.39</v>
       </c>
     </row>
     <row r="67">
@@ -5787,41 +5787,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>8.57</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>500</v>
       </c>
       <c r="N67" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5847,30 +5847,30 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23:40</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>9.470000000000001</v>
+        <v>10.43</v>
       </c>
       <c r="J68" t="n">
-        <v>8.720000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>800</v>
       </c>
       <c r="N68" t="n">
-        <v>800</v>
+        <v>891.14</v>
       </c>
     </row>
     <row r="69">
@@ -5907,27 +5907,27 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>22:57</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>45</v>
       </c>
       <c r="I69" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J69" t="n">
-        <v>8.449999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -5967,30 +5967,30 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Evening</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18:51</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>45</v>
       </c>
       <c r="I70" t="n">
-        <v>9.800000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>9.050000000000001</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>500</v>
       </c>
       <c r="N70" t="n">
-        <v>504.25</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71">
@@ -6032,22 +6032,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23:22</t>
+          <t>23:58</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>45</v>
       </c>
       <c r="I71" t="n">
-        <v>9.26</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>8.51</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>

--- a/Sky5_Kitchen_Admin_Kit.xlsx
+++ b/Sky5_Kitchen_Admin_Kit.xlsx
@@ -1780,7 +1780,7 @@
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -1887,41 +1887,41 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09:19</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>10.42</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>9.67</v>
+        <v>4.25</v>
       </c>
       <c r="K2" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1200</v>
       </c>
       <c r="N2" t="n">
-        <v>1333.16</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -1947,30 +1947,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>03:28</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>8.92</v>
+        <v>10.2</v>
       </c>
       <c r="J3" t="n">
-        <v>8.17</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="n">
-        <v>900</v>
+        <v>967.21</v>
       </c>
     </row>
     <row r="4">
@@ -2007,30 +2007,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:15</t>
+          <t>20:35</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>9.91</v>
+        <v>9.41</v>
       </c>
       <c r="J4" t="n">
-        <v>9.16</v>
+        <v>8.66</v>
       </c>
       <c r="K4" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>700</v>
       </c>
       <c r="N4" t="n">
-        <v>718.16</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5">
@@ -2067,41 +2067,41 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23:23</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>600</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -2127,27 +2127,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23:45</t>
+          <t>02:18</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>9.57</v>
+        <v>9.08</v>
       </c>
       <c r="J6" t="n">
-        <v>8.82</v>
+        <v>8.33</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2187,30 +2187,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09:23</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>02:10</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>10.1</v>
+        <v>8.91</v>
       </c>
       <c r="J7" t="n">
-        <v>9.35</v>
+        <v>8.16</v>
       </c>
       <c r="K7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>529.55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -2247,30 +2247,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>02:16</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>45</v>
       </c>
       <c r="I8" t="n">
-        <v>10.04</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>9.289999999999999</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>800</v>
       </c>
       <c r="N8" t="n">
-        <v>838.16</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9">
@@ -2307,27 +2307,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18:51</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>9.710000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>8.960000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2367,41 +2367,41 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>9.08</v>
       </c>
       <c r="J10" t="n">
-        <v>4.25</v>
+        <v>8.33</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>500</v>
       </c>
       <c r="N10" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -2427,27 +2427,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>23:22</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>8.92</v>
+        <v>9.32</v>
       </c>
       <c r="J11" t="n">
-        <v>8.17</v>
+        <v>8.57</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2487,30 +2487,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>45</v>
       </c>
       <c r="I12" t="n">
-        <v>10.45</v>
+        <v>9.48</v>
       </c>
       <c r="J12" t="n">
-        <v>9.699999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>1200</v>
       </c>
       <c r="N12" t="n">
-        <v>1339.59</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13">
@@ -2547,27 +2547,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>07:02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>45</v>
       </c>
       <c r="I13" t="n">
-        <v>9.44</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>8.69</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -2607,41 +2607,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:36</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>10.31</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>9.56</v>
+        <v>4.25</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>700</v>
       </c>
       <c r="N14" t="n">
-        <v>765.88</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
@@ -2667,27 +2667,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>01:38</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>45</v>
       </c>
       <c r="I15" t="n">
-        <v>8.52</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>7.77</v>
+        <v>7.86</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2727,30 +2727,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:23</t>
+          <t>23:28</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>10.25</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>9.5</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>500</v>
       </c>
       <c r="N16" t="n">
-        <v>541.47</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2787,41 +2787,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:27</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.66</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>500</v>
       </c>
       <c r="N17" t="n">
-        <v>555.3200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2847,27 +2847,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23:39</t>
+          <t>00:03</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>45</v>
       </c>
       <c r="I18" t="n">
-        <v>9.5</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>8.75</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2907,41 +2907,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>00:12</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1500</v>
       </c>
       <c r="N19" t="n">
-        <v>1563.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2967,30 +2967,30 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09:19</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>03:23</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>45</v>
       </c>
       <c r="I20" t="n">
-        <v>8.539999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="J20" t="n">
-        <v>7.79</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>500</v>
       </c>
       <c r="N20" t="n">
-        <v>500</v>
+        <v>546.09</v>
       </c>
     </row>
     <row r="21">
@@ -3027,41 +3027,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>9.32</v>
       </c>
       <c r="J21" t="n">
-        <v>4.25</v>
+        <v>8.57</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>500</v>
       </c>
       <c r="N21" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22">
@@ -3087,27 +3087,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>23:23</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>9.220000000000001</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>8.470000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3147,30 +3147,30 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22:57</t>
+          <t>20:57</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>45</v>
       </c>
       <c r="I23" t="n">
-        <v>8.77</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>8.02</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>900</v>
       </c>
       <c r="N23" t="n">
-        <v>900</v>
+        <v>916.12</v>
       </c>
     </row>
     <row r="24">
@@ -3207,30 +3207,30 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>00:14</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>45</v>
       </c>
       <c r="I24" t="n">
-        <v>9.359999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>8.609999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>700</v>
       </c>
       <c r="N24" t="n">
-        <v>700</v>
+        <v>723.13</v>
       </c>
     </row>
     <row r="25">
@@ -3267,30 +3267,30 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>03:31</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>9.619999999999999</v>
+        <v>10.34</v>
       </c>
       <c r="J25" t="n">
-        <v>8.869999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>600</v>
       </c>
       <c r="N25" t="n">
-        <v>600</v>
+        <v>659.36</v>
       </c>
     </row>
     <row r="26">
@@ -3327,27 +3327,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>07:26</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23:24</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>45</v>
       </c>
       <c r="I26" t="n">
-        <v>9.16</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>8.41</v>
+        <v>7.97</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -3387,30 +3387,30 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>21:48</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>45</v>
       </c>
       <c r="I27" t="n">
-        <v>10.5</v>
+        <v>10.36</v>
       </c>
       <c r="J27" t="n">
-        <v>9.75</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>500</v>
       </c>
       <c r="N27" t="n">
-        <v>562.5</v>
+        <v>550.59</v>
       </c>
     </row>
     <row r="28">
@@ -3447,30 +3447,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>07:23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>00:17</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>45</v>
       </c>
       <c r="I28" t="n">
-        <v>10.11</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>9.359999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>800</v>
       </c>
       <c r="N28" t="n">
-        <v>848.35</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>07:09</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>00:14</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>45</v>
       </c>
       <c r="I29" t="n">
-        <v>9.76</v>
+        <v>10.22</v>
       </c>
       <c r="J29" t="n">
-        <v>9.01</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01</v>
+        <v>0.47</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>1500</v>
       </c>
       <c r="N29" t="n">
-        <v>1501.8</v>
+        <v>1617.57</v>
       </c>
     </row>
     <row r="30">
@@ -3627,27 +3627,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23:20</t>
+          <t>02:07</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>45</v>
       </c>
       <c r="I31" t="n">
-        <v>9.27</v>
+        <v>8.99</v>
       </c>
       <c r="J31" t="n">
-        <v>8.52</v>
+        <v>8.24</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3687,30 +3687,30 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23:04</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>45</v>
       </c>
       <c r="I32" t="n">
-        <v>8.66</v>
+        <v>9.84</v>
       </c>
       <c r="J32" t="n">
-        <v>7.91</v>
+        <v>9.09</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>1200</v>
       </c>
       <c r="N32" t="n">
-        <v>1200</v>
+        <v>1217.75</v>
       </c>
     </row>
     <row r="33">
@@ -3747,41 +3747,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22:56</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.93</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.18</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>900</v>
       </c>
       <c r="N33" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3807,30 +3807,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:53</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>45</v>
       </c>
       <c r="I34" t="n">
-        <v>9.84</v>
+        <v>8.56</v>
       </c>
       <c r="J34" t="n">
-        <v>9.09</v>
+        <v>7.81</v>
       </c>
       <c r="K34" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>700</v>
       </c>
       <c r="N34" t="n">
-        <v>710.7</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35">
@@ -3867,30 +3867,30 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22:59</t>
+          <t>21:55</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>45</v>
       </c>
       <c r="I35" t="n">
-        <v>8.66</v>
+        <v>10.5</v>
       </c>
       <c r="J35" t="n">
-        <v>7.91</v>
+        <v>9.75</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>600</v>
       </c>
       <c r="N35" t="n">
-        <v>600</v>
+        <v>674.88</v>
       </c>
     </row>
     <row r="36">
@@ -3927,41 +3927,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09:13</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>10.25</v>
       </c>
       <c r="J36" t="n">
-        <v>4.25</v>
+        <v>9.5</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>500</v>
       </c>
       <c r="N36" t="n">
-        <v>250</v>
+        <v>541.55</v>
       </c>
     </row>
     <row r="37">
@@ -3987,41 +3987,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09:11</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>00:12</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>9.74</v>
       </c>
       <c r="J37" t="n">
-        <v>4.25</v>
+        <v>8.99</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>500</v>
       </c>
       <c r="N37" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38">
@@ -4047,41 +4047,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>00:20</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>9.9</v>
       </c>
       <c r="J38" t="n">
-        <v>4.25</v>
+        <v>9.15</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>800</v>
       </c>
       <c r="N38" t="n">
-        <v>400</v>
+        <v>819.91</v>
       </c>
     </row>
     <row r="39">
@@ -4107,12 +4107,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4124,10 +4124,10 @@
         <v>45</v>
       </c>
       <c r="I39" t="n">
-        <v>9.27</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>8.52</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4167,27 +4167,27 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23:37</t>
+          <t>19:58</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>45</v>
       </c>
       <c r="I40" t="n">
-        <v>9.390000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="J40" t="n">
-        <v>8.640000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4227,41 +4227,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>00:12</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>9.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>500</v>
       </c>
       <c r="N41" t="n">
-        <v>504.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4287,41 +4287,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>23:47</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5</v>
+        <v>9.76</v>
       </c>
       <c r="J42" t="n">
-        <v>4.25</v>
+        <v>9.01</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1200</v>
       </c>
       <c r="N42" t="n">
-        <v>600</v>
+        <v>1201.89</v>
       </c>
     </row>
     <row r="43">
@@ -4347,27 +4347,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23:39</t>
+          <t>19:58</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>45</v>
       </c>
       <c r="I43" t="n">
-        <v>9.41</v>
+        <v>8.85</v>
       </c>
       <c r="J43" t="n">
-        <v>8.66</v>
+        <v>8.1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4407,27 +4407,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23:33</t>
+          <t>02:49</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>45</v>
       </c>
       <c r="I44" t="n">
-        <v>9.140000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>8.390000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4467,30 +4467,30 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>07:02</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23:36</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>45</v>
       </c>
       <c r="I45" t="n">
-        <v>9.300000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="J45" t="n">
-        <v>8.550000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>600</v>
       </c>
       <c r="N45" t="n">
-        <v>600</v>
+        <v>608.64</v>
       </c>
     </row>
     <row r="46">
@@ -4527,30 +4527,30 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23:24</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>45</v>
       </c>
       <c r="I46" t="n">
-        <v>9.039999999999999</v>
+        <v>10.46</v>
       </c>
       <c r="J46" t="n">
-        <v>8.289999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>500</v>
       </c>
       <c r="N46" t="n">
-        <v>500</v>
+        <v>559.52</v>
       </c>
     </row>
     <row r="47">
@@ -4587,41 +4587,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18:41</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I47" t="n">
-        <v>9.43</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
-        <v>8.68</v>
+        <v>4.25</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>500</v>
       </c>
       <c r="N47" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
@@ -4647,30 +4647,30 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>00:13</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>45</v>
       </c>
       <c r="I48" t="n">
-        <v>9.869999999999999</v>
+        <v>10.23</v>
       </c>
       <c r="J48" t="n">
-        <v>9.119999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="K48" t="n">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>800</v>
       </c>
       <c r="N48" t="n">
-        <v>815.9400000000001</v>
+        <v>863.5</v>
       </c>
     </row>
     <row r="49">
@@ -4707,30 +4707,30 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18:18</t>
+          <t>00:20</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>45</v>
       </c>
       <c r="I49" t="n">
-        <v>8.960000000000001</v>
+        <v>10.09</v>
       </c>
       <c r="J49" t="n">
-        <v>8.210000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>1500</v>
       </c>
       <c r="N49" t="n">
-        <v>1500</v>
+        <v>1584.15</v>
       </c>
     </row>
     <row r="50">
@@ -4767,27 +4767,27 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>02:34</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>45</v>
       </c>
       <c r="I50" t="n">
-        <v>9.710000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="J50" t="n">
-        <v>8.960000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4827,30 +4827,30 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>23:14</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>45</v>
       </c>
       <c r="I51" t="n">
-        <v>10.21</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>9.460000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>500</v>
       </c>
       <c r="N51" t="n">
-        <v>537.97</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52">
@@ -4887,27 +4887,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>45</v>
       </c>
       <c r="I52" t="n">
-        <v>8.69</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>7.94</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4947,30 +4947,30 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23:51</t>
+          <t>03:35</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>9.779999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="J53" t="n">
-        <v>9.029999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03</v>
+        <v>0.54</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>900</v>
       </c>
       <c r="N53" t="n">
-        <v>905.05</v>
+        <v>980.6900000000001</v>
       </c>
     </row>
     <row r="54">
@@ -5007,41 +5007,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>07:23</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18:57</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I54" t="n">
-        <v>9.59</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
-        <v>8.84</v>
+        <v>4.25</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>700</v>
       </c>
       <c r="N54" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55">
@@ -5067,30 +5067,30 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09:23</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>45</v>
       </c>
       <c r="I55" t="n">
-        <v>9.199999999999999</v>
+        <v>10.08</v>
       </c>
       <c r="J55" t="n">
-        <v>8.449999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>600</v>
       </c>
       <c r="N55" t="n">
-        <v>600</v>
+        <v>633.24</v>
       </c>
     </row>
     <row r="56">
@@ -5127,30 +5127,30 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>21:07</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>45</v>
       </c>
       <c r="I56" t="n">
-        <v>9.960000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="J56" t="n">
-        <v>9.210000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="K56" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>500</v>
       </c>
       <c r="N56" t="n">
-        <v>517.41</v>
+        <v>519.71</v>
       </c>
     </row>
     <row r="57">
@@ -5187,27 +5187,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23:45</t>
+          <t>22:55</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>45</v>
       </c>
       <c r="I57" t="n">
-        <v>9.59</v>
+        <v>8.6</v>
       </c>
       <c r="J57" t="n">
-        <v>8.84</v>
+        <v>7.85</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5247,27 +5247,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>23:10</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>45</v>
       </c>
       <c r="I58" t="n">
-        <v>9.33</v>
+        <v>8.69</v>
       </c>
       <c r="J58" t="n">
-        <v>8.58</v>
+        <v>7.94</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5307,27 +5307,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09:13</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>23:20</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>45</v>
       </c>
       <c r="I59" t="n">
-        <v>8.9</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>8.15</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5367,41 +5367,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>8.91</v>
       </c>
       <c r="J60" t="n">
-        <v>4.25</v>
+        <v>8.16</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>500</v>
       </c>
       <c r="N60" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61">
@@ -5427,41 +5427,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23:38</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>9.630000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
-        <v>8.880000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>500</v>
       </c>
       <c r="N61" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62">
@@ -5487,30 +5487,30 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>22:38</t>
+          <t>02:56</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>45</v>
       </c>
       <c r="I62" t="n">
-        <v>8.529999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="J62" t="n">
-        <v>7.78</v>
+        <v>9.19</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>1200</v>
       </c>
       <c r="N62" t="n">
-        <v>1200</v>
+        <v>1238.53</v>
       </c>
     </row>
     <row r="63">
@@ -5547,30 +5547,30 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>00:32</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>45</v>
       </c>
       <c r="I63" t="n">
-        <v>10.23</v>
+        <v>9.84</v>
       </c>
       <c r="J63" t="n">
-        <v>9.48</v>
+        <v>9.09</v>
       </c>
       <c r="K63" t="n">
-        <v>0.48</v>
+        <v>0.09</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>900</v>
       </c>
       <c r="N63" t="n">
-        <v>971.35</v>
+        <v>913.04</v>
       </c>
     </row>
     <row r="64">
@@ -5607,30 +5607,30 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>01:53</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>45</v>
       </c>
       <c r="I64" t="n">
-        <v>10.31</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>9.56</v>
+        <v>7.8</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>700</v>
       </c>
       <c r="N64" t="n">
-        <v>765.65</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65">
@@ -5667,30 +5667,30 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09:23</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>00:52</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>45</v>
       </c>
       <c r="I65" t="n">
-        <v>9.81</v>
+        <v>10.42</v>
       </c>
       <c r="J65" t="n">
-        <v>9.06</v>
+        <v>9.67</v>
       </c>
       <c r="K65" t="n">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>600</v>
       </c>
       <c r="N65" t="n">
-        <v>605.9400000000001</v>
+        <v>667.33</v>
       </c>
     </row>
     <row r="66">
@@ -5727,30 +5727,30 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>07:26</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>00:17</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>45</v>
       </c>
       <c r="I66" t="n">
-        <v>9.800000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="J66" t="n">
-        <v>9.050000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="K66" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>500</v>
       </c>
       <c r="N66" t="n">
-        <v>504.39</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67">
@@ -5787,41 +5787,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>500</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68">
@@ -5847,30 +5847,30 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>03:45</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>10.43</v>
+        <v>10.5</v>
       </c>
       <c r="J68" t="n">
-        <v>9.68</v>
+        <v>9.75</v>
       </c>
       <c r="K68" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>800</v>
       </c>
       <c r="N68" t="n">
-        <v>891.14</v>
+        <v>899.84</v>
       </c>
     </row>
     <row r="69">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5917,20 +5917,20 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22:57</t>
+          <t>00:46</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>45</v>
       </c>
       <c r="I69" t="n">
-        <v>8.5</v>
+        <v>10.32</v>
       </c>
       <c r="J69" t="n">
-        <v>7.75</v>
+        <v>9.57</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>1500</v>
       </c>
       <c r="N69" t="n">
-        <v>1500</v>
+        <v>1643.33</v>
       </c>
     </row>
     <row r="70">
@@ -5967,30 +5967,30 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>45</v>
       </c>
       <c r="I70" t="n">
-        <v>9.130000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="J70" t="n">
-        <v>8.380000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>500</v>
       </c>
       <c r="N70" t="n">
-        <v>500</v>
+        <v>515.41</v>
       </c>
     </row>
     <row r="71">
@@ -6027,27 +6027,27 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Evening</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23:58</t>
+          <t>23:19</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>45</v>
       </c>
       <c r="I71" t="n">
-        <v>9.609999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>8.859999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>

--- a/Sky5_Kitchen_Admin_Kit.xlsx
+++ b/Sky5_Kitchen_Admin_Kit.xlsx
@@ -1887,17 +1887,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>18:32</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1947,30 +1947,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03:28</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>10.2</v>
+        <v>9.26</v>
       </c>
       <c r="J3" t="n">
-        <v>9.449999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="K3" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="n">
-        <v>967.21</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -2007,30 +2007,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20:35</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>9.41</v>
+        <v>10.13</v>
       </c>
       <c r="J4" t="n">
-        <v>8.66</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>700</v>
       </c>
       <c r="N4" t="n">
-        <v>700</v>
+        <v>743.92</v>
       </c>
     </row>
     <row r="5">
@@ -2067,27 +2067,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23:23</t>
+          <t>20:44</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>9.369999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="J5" t="n">
-        <v>8.619999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2127,27 +2127,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02:18</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>9.08</v>
+        <v>9.1</v>
       </c>
       <c r="J6" t="n">
-        <v>8.33</v>
+        <v>8.35</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2187,30 +2187,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02:10</t>
+          <t>00:41</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>8.91</v>
+        <v>10.42</v>
       </c>
       <c r="J7" t="n">
-        <v>8.16</v>
+        <v>9.67</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>500</v>
+        <v>555.48</v>
       </c>
     </row>
     <row r="8">
@@ -2247,27 +2247,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>07:25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>45</v>
       </c>
       <c r="I8" t="n">
-        <v>9.220000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>8.470000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2307,30 +2307,30 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>00:11</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>8.630000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>7.88</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>1500</v>
       </c>
       <c r="N9" t="n">
-        <v>1500</v>
+        <v>1506.85</v>
       </c>
     </row>
     <row r="10">
@@ -2367,27 +2367,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>9.08</v>
+        <v>9.02</v>
       </c>
       <c r="J10" t="n">
-        <v>8.33</v>
+        <v>8.27</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2427,27 +2427,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23:22</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>9.32</v>
+        <v>9.52</v>
       </c>
       <c r="J11" t="n">
-        <v>8.57</v>
+        <v>8.77</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2492,25 +2492,25 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:19</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>45</v>
       </c>
       <c r="I12" t="n">
-        <v>9.48</v>
+        <v>9.91</v>
       </c>
       <c r="J12" t="n">
-        <v>8.73</v>
+        <v>9.16</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>1200</v>
       </c>
       <c r="N12" t="n">
-        <v>1200</v>
+        <v>1231.97</v>
       </c>
     </row>
     <row r="13">
@@ -2547,27 +2547,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>07:02</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>23:27</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>45</v>
       </c>
       <c r="I13" t="n">
-        <v>9.529999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="J13" t="n">
-        <v>8.779999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -2607,41 +2607,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>00:03</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>9.83</v>
       </c>
       <c r="J14" t="n">
-        <v>4.25</v>
+        <v>9.08</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>700</v>
       </c>
       <c r="N14" t="n">
-        <v>350</v>
+        <v>709.6900000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2667,30 +2667,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01:38</t>
+          <t>21:27</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>45</v>
       </c>
       <c r="I15" t="n">
-        <v>8.609999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="J15" t="n">
-        <v>7.86</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>600</v>
       </c>
       <c r="N15" t="n">
-        <v>600</v>
+        <v>660.9</v>
       </c>
     </row>
     <row r="16">
@@ -2727,27 +2727,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>07:22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23:28</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>9.460000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="J16" t="n">
-        <v>8.710000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2787,41 +2787,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>02:26</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>500</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -2847,27 +2847,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>00:03</t>
+          <t>19:51</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>45</v>
       </c>
       <c r="I18" t="n">
-        <v>9.640000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="J18" t="n">
-        <v>8.890000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2907,41 +2907,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>00:38</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10.29</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1500</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1636.15</v>
       </c>
     </row>
     <row r="20">
@@ -2972,25 +2972,25 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03:23</t>
+          <t>02:35</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>45</v>
       </c>
       <c r="I20" t="n">
-        <v>10.3</v>
+        <v>9.25</v>
       </c>
       <c r="J20" t="n">
-        <v>9.550000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>500</v>
       </c>
       <c r="N20" t="n">
-        <v>546.09</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -3032,25 +3032,25 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23:39</t>
+          <t>00:43</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>9.32</v>
+        <v>10.48</v>
       </c>
       <c r="J21" t="n">
-        <v>8.57</v>
+        <v>9.73</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>500</v>
       </c>
       <c r="N21" t="n">
-        <v>500</v>
+        <v>560.49</v>
       </c>
     </row>
     <row r="22">
@@ -3087,27 +3087,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23:23</t>
+          <t>02:19</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>9.029999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="J22" t="n">
-        <v>8.279999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3147,30 +3147,30 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20:57</t>
+          <t>01:55</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>45</v>
       </c>
       <c r="I23" t="n">
-        <v>9.859999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="J23" t="n">
-        <v>9.109999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="K23" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>900</v>
       </c>
       <c r="N23" t="n">
-        <v>916.12</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24">
@@ -3207,30 +3207,30 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>00:14</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>45</v>
       </c>
       <c r="I24" t="n">
-        <v>9.949999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="J24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>700</v>
       </c>
       <c r="N24" t="n">
-        <v>723.13</v>
+        <v>741.38</v>
       </c>
     </row>
     <row r="25">
@@ -3267,30 +3267,30 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>07:02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03:31</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>10.34</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>9.59</v>
+        <v>7.78</v>
       </c>
       <c r="K25" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>600</v>
       </c>
       <c r="N25" t="n">
-        <v>659.36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3327,27 +3327,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>07:26</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>45</v>
       </c>
       <c r="I26" t="n">
-        <v>8.720000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>7.97</v>
+        <v>7.87</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21:48</t>
+          <t>19:53</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>45</v>
       </c>
       <c r="I27" t="n">
-        <v>10.36</v>
+        <v>8.85</v>
       </c>
       <c r="J27" t="n">
-        <v>9.609999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>500</v>
       </c>
       <c r="N27" t="n">
-        <v>550.59</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28">
@@ -3447,30 +3447,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>07:23</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>03:20</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>45</v>
       </c>
       <c r="I28" t="n">
-        <v>9.279999999999999</v>
+        <v>10.34</v>
       </c>
       <c r="J28" t="n">
-        <v>8.529999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>800</v>
       </c>
       <c r="N28" t="n">
-        <v>800</v>
+        <v>879.0700000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>07:09</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>00:27</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>45</v>
       </c>
       <c r="I29" t="n">
-        <v>10.22</v>
+        <v>10.12</v>
       </c>
       <c r="J29" t="n">
-        <v>9.470000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>1500</v>
       </c>
       <c r="N29" t="n">
-        <v>1617.57</v>
+        <v>1592.1</v>
       </c>
     </row>
     <row r="30">
@@ -3567,41 +3567,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>03:46</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>500</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>551.11</v>
       </c>
     </row>
     <row r="31">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02:07</t>
+          <t>02:11</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>45</v>
       </c>
       <c r="I31" t="n">
-        <v>8.99</v>
+        <v>8.73</v>
       </c>
       <c r="J31" t="n">
-        <v>8.24</v>
+        <v>7.98</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3687,41 +3687,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1200</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3747,41 +3747,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20:08</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>900</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34">
@@ -3807,30 +3807,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19:53</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>45</v>
       </c>
       <c r="I34" t="n">
-        <v>8.56</v>
+        <v>9.93</v>
       </c>
       <c r="J34" t="n">
-        <v>7.81</v>
+        <v>9.18</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>700</v>
       </c>
       <c r="N34" t="n">
-        <v>700</v>
+        <v>721.14</v>
       </c>
     </row>
     <row r="35">
@@ -3867,41 +3867,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21:55</t>
+          <t>21:54</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I35" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>9.75</v>
+        <v>4.25</v>
       </c>
       <c r="K35" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>600</v>
       </c>
       <c r="N35" t="n">
-        <v>674.88</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
@@ -3927,30 +3927,30 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>45</v>
       </c>
       <c r="I36" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="J36" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>500</v>
       </c>
       <c r="N36" t="n">
-        <v>541.55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37">
@@ -3987,30 +3987,30 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>00:12</t>
+          <t>03:44</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>45</v>
       </c>
       <c r="I37" t="n">
-        <v>9.74</v>
+        <v>10.45</v>
       </c>
       <c r="J37" t="n">
-        <v>8.99</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>500</v>
       </c>
       <c r="N37" t="n">
-        <v>500</v>
+        <v>558.6</v>
       </c>
     </row>
     <row r="38">
@@ -4047,30 +4047,30 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>00:20</t>
+          <t>21:17</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>45</v>
       </c>
       <c r="I38" t="n">
-        <v>9.9</v>
+        <v>9.93</v>
       </c>
       <c r="J38" t="n">
-        <v>9.15</v>
+        <v>9.18</v>
       </c>
       <c r="K38" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>800</v>
       </c>
       <c r="N38" t="n">
-        <v>819.91</v>
+        <v>823.75</v>
       </c>
     </row>
     <row r="39">
@@ -4112,25 +4112,25 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23:41</t>
+          <t>00:25</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>45</v>
       </c>
       <c r="I39" t="n">
-        <v>9.630000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="J39" t="n">
-        <v>8.880000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>1500</v>
       </c>
       <c r="N39" t="n">
-        <v>1500</v>
+        <v>1614.69</v>
       </c>
     </row>
     <row r="40">
@@ -4167,27 +4167,27 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19:58</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>45</v>
       </c>
       <c r="I40" t="n">
-        <v>8.59</v>
+        <v>9.18</v>
       </c>
       <c r="J40" t="n">
-        <v>7.84</v>
+        <v>8.43</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4227,41 +4227,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>00:17</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.24</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>9.49</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>500</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>540.89</v>
       </c>
     </row>
     <row r="42">
@@ -4287,41 +4287,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23:47</t>
+          <t>21:56</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>9.76</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="n">
-        <v>9.01</v>
+        <v>4.25</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1200</v>
       </c>
       <c r="N42" t="n">
-        <v>1201.89</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -4347,30 +4347,30 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19:58</t>
+          <t>00:08</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>45</v>
       </c>
       <c r="I43" t="n">
-        <v>8.85</v>
+        <v>10.11</v>
       </c>
       <c r="J43" t="n">
-        <v>8.1</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>900</v>
       </c>
       <c r="N43" t="n">
-        <v>900</v>
+        <v>954.65</v>
       </c>
     </row>
     <row r="44">
@@ -4407,30 +4407,30 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02:49</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>45</v>
       </c>
       <c r="I44" t="n">
-        <v>9.710000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="J44" t="n">
-        <v>8.960000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>700</v>
       </c>
       <c r="N44" t="n">
-        <v>700</v>
+        <v>775.99</v>
       </c>
     </row>
     <row r="45">
@@ -4472,25 +4472,25 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>07:02</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>45</v>
       </c>
       <c r="I45" t="n">
-        <v>9.84</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>9.09</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>600</v>
       </c>
       <c r="N45" t="n">
-        <v>608.64</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46">
@@ -4527,30 +4527,30 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>07:10</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>45</v>
       </c>
       <c r="I46" t="n">
-        <v>10.46</v>
+        <v>10.08</v>
       </c>
       <c r="J46" t="n">
-        <v>9.710000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="K46" t="n">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>500</v>
       </c>
       <c r="N46" t="n">
-        <v>559.52</v>
+        <v>527.1799999999999</v>
       </c>
     </row>
     <row r="47">
@@ -4587,41 +4587,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>01:52</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>4.25</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>500</v>
       </c>
       <c r="N47" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48">
@@ -4647,30 +4647,30 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>00:13</t>
+          <t>03:28</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>45</v>
       </c>
       <c r="I48" t="n">
-        <v>10.23</v>
+        <v>10.37</v>
       </c>
       <c r="J48" t="n">
-        <v>9.48</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>800</v>
       </c>
       <c r="N48" t="n">
-        <v>863.5</v>
+        <v>882.22</v>
       </c>
     </row>
     <row r="49">
@@ -4707,30 +4707,30 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>17:21</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>00:20</t>
+          <t>03:08</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>45</v>
       </c>
       <c r="I49" t="n">
-        <v>10.09</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>9.34</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>1500</v>
       </c>
       <c r="N49" t="n">
-        <v>1584.15</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="50">
@@ -4767,27 +4767,27 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02:34</t>
+          <t>22:57</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>45</v>
       </c>
       <c r="I50" t="n">
-        <v>9.24</v>
+        <v>8.66</v>
       </c>
       <c r="J50" t="n">
-        <v>8.49</v>
+        <v>7.91</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4832,25 +4832,25 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23:14</t>
+          <t>00:23</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>45</v>
       </c>
       <c r="I51" t="n">
-        <v>8.890000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="J51" t="n">
-        <v>8.140000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>500</v>
       </c>
       <c r="N51" t="n">
-        <v>500</v>
+        <v>525.39</v>
       </c>
     </row>
     <row r="52">
@@ -4887,27 +4887,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>02:55</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>45</v>
       </c>
       <c r="I52" t="n">
-        <v>9.550000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="J52" t="n">
-        <v>8.800000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4952,25 +4952,25 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03:35</t>
+          <t>02:43</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>10.29</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>9.539999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>900</v>
       </c>
       <c r="N53" t="n">
-        <v>980.6900000000001</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54">
@@ -5007,41 +5007,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>07:23</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>21:24</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I54" t="n">
-        <v>4.5</v>
+        <v>10.23</v>
       </c>
       <c r="J54" t="n">
-        <v>4.25</v>
+        <v>9.48</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>700</v>
       </c>
       <c r="N54" t="n">
-        <v>350</v>
+        <v>755.87</v>
       </c>
     </row>
     <row r="55">
@@ -5067,30 +5067,30 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>02:02</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>45</v>
       </c>
       <c r="I55" t="n">
-        <v>10.08</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>9.33</v>
+        <v>7.86</v>
       </c>
       <c r="K55" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>600</v>
       </c>
       <c r="N55" t="n">
-        <v>633.24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56">
@@ -5127,30 +5127,30 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21:07</t>
+          <t>02:56</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>45</v>
       </c>
       <c r="I56" t="n">
-        <v>9.99</v>
+        <v>9.52</v>
       </c>
       <c r="J56" t="n">
-        <v>9.24</v>
+        <v>8.77</v>
       </c>
       <c r="K56" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>500</v>
       </c>
       <c r="N56" t="n">
-        <v>519.71</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57">
@@ -5192,22 +5192,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22:55</t>
+          <t>23:34</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>45</v>
       </c>
       <c r="I57" t="n">
-        <v>8.6</v>
+        <v>9.44</v>
       </c>
       <c r="J57" t="n">
-        <v>7.85</v>
+        <v>8.69</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5247,27 +5247,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23:10</t>
+          <t>02:42</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>45</v>
       </c>
       <c r="I58" t="n">
-        <v>8.69</v>
+        <v>9.32</v>
       </c>
       <c r="J58" t="n">
-        <v>7.94</v>
+        <v>8.57</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5317,20 +5317,20 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23:20</t>
+          <t>00:07</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>45</v>
       </c>
       <c r="I59" t="n">
-        <v>9.119999999999999</v>
+        <v>9.91</v>
       </c>
       <c r="J59" t="n">
-        <v>8.369999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>1500</v>
       </c>
       <c r="N59" t="n">
-        <v>1500</v>
+        <v>1539.57</v>
       </c>
     </row>
     <row r="60">
@@ -5367,30 +5367,30 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>45</v>
       </c>
       <c r="I60" t="n">
-        <v>8.91</v>
+        <v>9.98</v>
       </c>
       <c r="J60" t="n">
-        <v>8.16</v>
+        <v>9.23</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>500</v>
       </c>
       <c r="N60" t="n">
-        <v>500</v>
+        <v>519.11</v>
       </c>
     </row>
     <row r="61">
@@ -5427,41 +5427,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>03:14</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>10.14</v>
       </c>
       <c r="J61" t="n">
-        <v>4.25</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>500</v>
       </c>
       <c r="N61" t="n">
-        <v>250</v>
+        <v>532.3200000000001</v>
       </c>
     </row>
     <row r="62">
@@ -5492,36 +5492,36 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02:56</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I62" t="n">
-        <v>9.94</v>
+        <v>4.5</v>
       </c>
       <c r="J62" t="n">
-        <v>9.19</v>
+        <v>4.25</v>
       </c>
       <c r="K62" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>1200</v>
       </c>
       <c r="N62" t="n">
-        <v>1238.53</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63">
@@ -5547,30 +5547,30 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>07:24</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>00:32</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>45</v>
       </c>
       <c r="I63" t="n">
-        <v>9.84</v>
+        <v>10.37</v>
       </c>
       <c r="J63" t="n">
-        <v>9.09</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>0.09</v>
+        <v>0.62</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>900</v>
       </c>
       <c r="N63" t="n">
-        <v>913.04</v>
+        <v>992.73</v>
       </c>
     </row>
     <row r="64">
@@ -5607,27 +5607,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>01:53</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>45</v>
       </c>
       <c r="I64" t="n">
-        <v>8.550000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="J64" t="n">
-        <v>7.8</v>
+        <v>8.57</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -5667,30 +5667,30 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>00:52</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>45</v>
       </c>
       <c r="I65" t="n">
-        <v>10.42</v>
+        <v>9.49</v>
       </c>
       <c r="J65" t="n">
-        <v>9.67</v>
+        <v>8.74</v>
       </c>
       <c r="K65" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>600</v>
       </c>
       <c r="N65" t="n">
-        <v>667.33</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66">
@@ -5727,30 +5727,30 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>07:26</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>03:40</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>45</v>
       </c>
       <c r="I66" t="n">
-        <v>8.94</v>
+        <v>10.23</v>
       </c>
       <c r="J66" t="n">
-        <v>8.19</v>
+        <v>9.48</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>500</v>
       </c>
       <c r="N66" t="n">
-        <v>500</v>
+        <v>539.92</v>
       </c>
     </row>
     <row r="67">
@@ -5787,41 +5787,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I67" t="n">
-        <v>4.5</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>4.25</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>500</v>
       </c>
       <c r="N67" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68">
@@ -5852,25 +5852,25 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03:45</t>
+          <t>03:37</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>10.5</v>
+        <v>10.29</v>
       </c>
       <c r="J68" t="n">
-        <v>9.75</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>800</v>
       </c>
       <c r="N68" t="n">
-        <v>899.84</v>
+        <v>872.27</v>
       </c>
     </row>
     <row r="69">
@@ -5907,30 +5907,30 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>00:46</t>
+          <t>20:11</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>45</v>
       </c>
       <c r="I69" t="n">
-        <v>10.32</v>
+        <v>9.02</v>
       </c>
       <c r="J69" t="n">
-        <v>9.57</v>
+        <v>8.27</v>
       </c>
       <c r="K69" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>1500</v>
       </c>
       <c r="N69" t="n">
-        <v>1643.33</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70">
@@ -5967,30 +5967,30 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>07:24</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>45</v>
       </c>
       <c r="I70" t="n">
-        <v>9.93</v>
+        <v>9.69</v>
       </c>
       <c r="J70" t="n">
-        <v>9.18</v>
+        <v>8.94</v>
       </c>
       <c r="K70" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>500</v>
       </c>
       <c r="N70" t="n">
-        <v>515.41</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71">
@@ -6027,27 +6027,27 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23:19</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>45</v>
       </c>
       <c r="I71" t="n">
-        <v>9.279999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="J71" t="n">
-        <v>8.529999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>

--- a/Sky5_Kitchen_Admin_Kit.xlsx
+++ b/Sky5_Kitchen_Admin_Kit.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="41" customWidth="1" min="4" max="4"/>
+    <col width="181" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
@@ -638,7 +638,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fresh vegetable soup (350 ml).</t>
+          <t>A warm, comforting bowl of freshly prepared vegetable soup, made in our boutique hotel kitchen with seasonal vegetables and gentle spices. Perfect for a light yet satisfying meal.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -674,7 +674,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sweet corn vegetable soup (300 ml).</t>
+          <t>Classic hotel-style sweet corn soup with a rich, mildly sweet flavour and hearty texture. Comfort food that’s easy on the stomach and full of taste.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -854,7 +854,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classic fried rice.</t>
+          <t>Long-grain rice tossed with fresh vegetables and light seasoning, cooked in hotel-style for a balanced, non-greasy flavour.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Stir-fried noodles.</t>
+          <t>Soft noodles stir-fried with fresh vegetables, soy and subtle spices. A comforting Indo-Chinese favourite prepared fresh to order.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Spicy noodles.</t>
+          <t>Flavourful noodles tossed with vegetables, garlic and chilli for a mildly spicy kick, prepared in classic hotel-style.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -948,28 +948,28 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Indian Mains</t>
+          <t>Rice &amp; Noodles</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yellow Dal Tadka</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lentils tempered with spices.</t>
+          <t>Fragrant basmati rice cooked with fresh vegetables and mild spices, served with cooling raita. Light, aromatic and satisfying.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="F14" t="n">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -993,34 +993,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dal Makhani</t>
+          <t>Yellow Dal Tadka</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Slow-cooked creamy dal.</t>
+          <t>Slow-cooked yellow lentils tempered with cumin, garlic and desi ghee. Simple, comforting and full of homely flavour.</t>
         </is>
       </c>
       <c r="E15" t="n">
+        <v>299</v>
+      </c>
+      <c r="F15" t="n">
         <v>349</v>
       </c>
-      <c r="F15" t="n">
-        <v>399</v>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>dal_tadka_combo_thali_1770012594484.png</t>
+          <t>dal_tadka_roti_rice_combo_1770013924380.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1029,20 +1029,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Dal Makhani</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rich tomato butter gravy.</t>
+          <t>Slow-cooked creamy dal.</t>
         </is>
       </c>
       <c r="E16" t="n">
+        <v>349</v>
+      </c>
+      <c r="F16" t="n">
         <v>399</v>
       </c>
-      <c r="F16" t="n">
-        <v>449</v>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1050,185 +1050,257 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>paneer_butter_masala_combo_bowl_1770012612956.png</t>
+          <t>dal_tadka_combo_thali_1770012594484.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Breads</t>
+          <t>Indian Mains</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Butter Roti</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Whole wheat roti.</t>
+          <t>Soft paneer cubes cooked in a rich tomato-based gravy with butter and mild spices. A classic hotel favourite that pairs perfectly with rice or rotis.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="F17" t="n">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>breakfast_paratha_combo_1770012647403.png</t>
+          <t>paneer_butter_masala_combo_bowl_1770012612956.png</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Breads</t>
+          <t>Indian Mains</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aloo Paratha</t>
+          <t>Palak Paneer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stuffed potato paratha.</t>
+          <t>Fresh spinach gravy blended with aromatic spices and soft paneer, prepared in traditional hotel-style for a smooth and comforting taste.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>129</v>
+        <v>399</v>
       </c>
       <c r="F18" t="n">
-        <v>159</v>
+        <v>449</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>breakfast_paratha_combo_1770012647403.png</t>
+          <t>paneer_butter_masala_combo_bowl_1770012612956.png</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Desserts</t>
+          <t>Breads</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gajar Ka Halwa</t>
+          <t>Butter Roti</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Carrot halwa.</t>
+          <t>Whole wheat roti.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="F19" t="n">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>gajar_halwa_bowl_1770013800745.png</t>
+          <t>breakfast_paratha_combo_1770012647403.png</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Desserts</t>
+          <t>Breads</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rice Kheer</t>
+          <t>Aloo Paratha</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rice pudding.</t>
+          <t>Stuffed potato paratha.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F20" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>gajar_halwa_bowl_1770013800745.png</t>
+          <t>breakfast_paratha_combo_1770012647403.png</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Desserts</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gajar Ka Halwa</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Slow-cooked carrot dessert prepared in traditional style, lightly sweetened and served warm.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>199</v>
+      </c>
+      <c r="F21" t="n">
+        <v>249</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>gajar_halwa_bowl_1770013800745.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Desserts</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rice Kheer</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Creamy rice pudding gently flavoured with cardamom, prepared fresh for a comforting dessert experience.</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>149</v>
+      </c>
+      <c r="F22" t="n">
+        <v>199</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>gajar_halwa_bowl_1770013800745.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>32</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Juices</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Fresh Fruit Juice</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Orange / Watermelon / Pineapple.</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Freshly prepared juice made from seasonal fruits. No artificial flavours, no concentrates.</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>149</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F23" t="n">
         <v>199</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>fresh_fruit_juices_assorted_1770013780221.png</t>
         </is>
@@ -1887,41 +1959,41 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18:32</t>
+          <t>02:33</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.25</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1200</v>
       </c>
       <c r="N2" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3">
@@ -1947,30 +2019,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>23:57</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>9.26</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>8.51</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1981,7 +2053,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="n">
-        <v>900</v>
+        <v>918.25</v>
       </c>
     </row>
     <row r="4">
@@ -2007,41 +2079,41 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9.380000000000001</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>700</v>
       </c>
       <c r="N4" t="n">
-        <v>743.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2072,36 +2144,36 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20:44</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>9.56</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>8.81</v>
+        <v>4.25</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>600</v>
       </c>
       <c r="N5" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -2127,27 +2199,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>19:59</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>9.1</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>8.35</v>
+        <v>7.78</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2187,41 +2259,41 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>10.42</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>9.67</v>
+        <v>4.25</v>
       </c>
       <c r="K7" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>555.48</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -2247,27 +2319,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>07:25</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>01:38</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>45</v>
       </c>
       <c r="I8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="J8" t="n">
-        <v>7.95</v>
+        <v>7.77</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2312,25 +2384,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:11</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>9.779999999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>9.029999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -2341,7 +2413,7 @@
         <v>1500</v>
       </c>
       <c r="N9" t="n">
-        <v>1506.85</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10">
@@ -2367,27 +2439,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>9.02</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>8.27</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2427,30 +2499,30 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>03:29</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>9.52</v>
+        <v>10.01</v>
       </c>
       <c r="J11" t="n">
-        <v>8.77</v>
+        <v>9.26</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -2461,7 +2533,7 @@
         <v>500</v>
       </c>
       <c r="N11" t="n">
-        <v>500</v>
+        <v>521.49</v>
       </c>
     </row>
     <row r="12">
@@ -2487,41 +2559,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:19</t>
+          <t>18:36</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
-        <v>9.91</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>9.16</v>
+        <v>4.25</v>
       </c>
       <c r="K12" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1200</v>
       </c>
       <c r="N12" t="n">
-        <v>1231.97</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2547,30 +2619,30 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23:27</t>
+          <t>03:51</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>45</v>
       </c>
       <c r="I13" t="n">
-        <v>9.08</v>
+        <v>10.37</v>
       </c>
       <c r="J13" t="n">
-        <v>8.33</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -2581,7 +2653,7 @@
         <v>900</v>
       </c>
       <c r="N13" t="n">
-        <v>900</v>
+        <v>993.13</v>
       </c>
     </row>
     <row r="14">
@@ -2612,25 +2684,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:03</t>
+          <t>22:53</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>9.83</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>9.08</v>
+        <v>7.78</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2641,7 +2713,7 @@
         <v>700</v>
       </c>
       <c r="N14" t="n">
-        <v>709.6900000000001</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15">
@@ -2667,30 +2739,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21:27</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>45</v>
       </c>
       <c r="I15" t="n">
-        <v>10.36</v>
+        <v>8.59</v>
       </c>
       <c r="J15" t="n">
-        <v>9.609999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2701,7 +2773,7 @@
         <v>600</v>
       </c>
       <c r="N15" t="n">
-        <v>660.9</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2727,27 +2799,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>07:22</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>23:40</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>9.43</v>
+        <v>9.66</v>
       </c>
       <c r="J16" t="n">
-        <v>8.68</v>
+        <v>8.91</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2787,27 +2859,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02:26</t>
+          <t>23:07</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>45</v>
       </c>
       <c r="I17" t="n">
-        <v>8.949999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="J17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2852,36 +2924,36 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19:51</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>8.57</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>7.82</v>
+        <v>4.25</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>800</v>
       </c>
       <c r="N18" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19">
@@ -2907,30 +2979,30 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>00:38</t>
+          <t>03:16</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>45</v>
       </c>
       <c r="I19" t="n">
-        <v>10.29</v>
+        <v>10.16</v>
       </c>
       <c r="J19" t="n">
-        <v>9.539999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="K19" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2941,7 +3013,7 @@
         <v>1500</v>
       </c>
       <c r="N19" t="n">
-        <v>1636.15</v>
+        <v>1603.47</v>
       </c>
     </row>
     <row r="20">
@@ -2967,30 +3039,30 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02:35</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>45</v>
       </c>
       <c r="I20" t="n">
-        <v>9.25</v>
+        <v>10.4</v>
       </c>
       <c r="J20" t="n">
-        <v>8.5</v>
+        <v>9.65</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -3001,7 +3073,7 @@
         <v>500</v>
       </c>
       <c r="N20" t="n">
-        <v>500</v>
+        <v>554.48</v>
       </c>
     </row>
     <row r="21">
@@ -3027,30 +3099,30 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>07:26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>00:43</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>10.48</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>9.73</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.73</v>
+        <v>0.13</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -3061,7 +3133,7 @@
         <v>500</v>
       </c>
       <c r="N21" t="n">
-        <v>560.49</v>
+        <v>510.55</v>
       </c>
     </row>
     <row r="22">
@@ -3087,30 +3159,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02:19</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>9.17</v>
+        <v>10.1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.42</v>
+        <v>9.35</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -3121,7 +3193,7 @@
         <v>1200</v>
       </c>
       <c r="N22" t="n">
-        <v>1200</v>
+        <v>1270.75</v>
       </c>
     </row>
     <row r="23">
@@ -3152,22 +3224,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01:55</t>
+          <t>02:40</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>45</v>
       </c>
       <c r="I23" t="n">
-        <v>8.77</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>8.02</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3207,41 +3279,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.35</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>700</v>
       </c>
       <c r="N24" t="n">
-        <v>741.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3267,27 +3339,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>07:02</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>23:31</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>8.529999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="J25" t="n">
-        <v>7.78</v>
+        <v>8.76</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -3327,30 +3399,30 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>03:36</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>45</v>
       </c>
       <c r="I26" t="n">
-        <v>8.619999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="J26" t="n">
-        <v>7.87</v>
+        <v>9.69</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -3361,7 +3433,7 @@
         <v>500</v>
       </c>
       <c r="N26" t="n">
-        <v>500</v>
+        <v>557.86</v>
       </c>
     </row>
     <row r="27">
@@ -3387,41 +3459,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:53</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>500</v>
       </c>
       <c r="N27" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3452,25 +3524,25 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>03:20</t>
+          <t>03:33</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>45</v>
       </c>
       <c r="I28" t="n">
-        <v>10.34</v>
+        <v>10.39</v>
       </c>
       <c r="J28" t="n">
-        <v>9.59</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3481,7 +3553,7 @@
         <v>800</v>
       </c>
       <c r="N28" t="n">
-        <v>879.0700000000001</v>
+        <v>885.73</v>
       </c>
     </row>
     <row r="29">
@@ -3512,25 +3584,25 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>00:27</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>45</v>
       </c>
       <c r="I29" t="n">
-        <v>10.12</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>9.369999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3541,7 +3613,7 @@
         <v>1500</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.1</v>
+        <v>1534.34</v>
       </c>
     </row>
     <row r="30">
@@ -3567,30 +3639,30 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03:46</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>45</v>
       </c>
       <c r="I30" t="n">
-        <v>10.36</v>
+        <v>10.04</v>
       </c>
       <c r="J30" t="n">
-        <v>9.609999999999999</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.61</v>
+        <v>0.29</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -3601,7 +3673,7 @@
         <v>500</v>
       </c>
       <c r="N30" t="n">
-        <v>551.11</v>
+        <v>523.8</v>
       </c>
     </row>
     <row r="31">
@@ -3632,22 +3704,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02:11</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>45</v>
       </c>
       <c r="I31" t="n">
-        <v>8.73</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>7.98</v>
+        <v>7.96</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3687,41 +3759,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>07:17</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1200</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1225.98</v>
       </c>
     </row>
     <row r="33">
@@ -3747,30 +3819,30 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>07:26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20:08</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>45</v>
       </c>
       <c r="I33" t="n">
-        <v>9.029999999999999</v>
+        <v>10.35</v>
       </c>
       <c r="J33" t="n">
-        <v>8.279999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3781,7 +3853,7 @@
         <v>900</v>
       </c>
       <c r="N33" t="n">
-        <v>900</v>
+        <v>989.42</v>
       </c>
     </row>
     <row r="34">
@@ -3807,30 +3879,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>00:22</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>45</v>
       </c>
       <c r="I34" t="n">
-        <v>9.93</v>
+        <v>10.06</v>
       </c>
       <c r="J34" t="n">
-        <v>9.18</v>
+        <v>9.31</v>
       </c>
       <c r="K34" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3841,7 +3913,7 @@
         <v>700</v>
       </c>
       <c r="N34" t="n">
-        <v>721.14</v>
+        <v>735.79</v>
       </c>
     </row>
     <row r="35">
@@ -3927,27 +3999,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>23:52</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>45</v>
       </c>
       <c r="I36" t="n">
-        <v>9.25</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>8.5</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3987,30 +4059,30 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03:44</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>45</v>
       </c>
       <c r="I37" t="n">
-        <v>10.45</v>
+        <v>10.47</v>
       </c>
       <c r="J37" t="n">
-        <v>9.699999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -4021,7 +4093,7 @@
         <v>500</v>
       </c>
       <c r="N37" t="n">
-        <v>558.6</v>
+        <v>559.88</v>
       </c>
     </row>
     <row r="38">
@@ -4047,41 +4119,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21:17</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>9.93</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>9.18</v>
+        <v>4.25</v>
       </c>
       <c r="K38" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>800</v>
       </c>
       <c r="N38" t="n">
-        <v>823.75</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39">
@@ -4107,41 +4179,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>00:25</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I39" t="n">
-        <v>10.21</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>9.460000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="K39" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>1500</v>
       </c>
       <c r="N39" t="n">
-        <v>1614.69</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40">
@@ -4167,41 +4239,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>07:18</t>
+          <t>14:26</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>18:56</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I40" t="n">
-        <v>9.18</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>8.43</v>
+        <v>4.25</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>500</v>
       </c>
       <c r="N40" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41">
@@ -4227,30 +4299,30 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>00:17</t>
+          <t>20:46</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>45</v>
       </c>
       <c r="I41" t="n">
-        <v>10.24</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>9.49</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -4261,7 +4333,7 @@
         <v>500</v>
       </c>
       <c r="N41" t="n">
-        <v>540.89</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42">
@@ -4292,36 +4364,36 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21:56</t>
+          <t>03:37</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5</v>
+        <v>10.22</v>
       </c>
       <c r="J42" t="n">
-        <v>4.25</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1200</v>
       </c>
       <c r="N42" t="n">
-        <v>600</v>
+        <v>1294.15</v>
       </c>
     </row>
     <row r="43">
@@ -4347,30 +4419,30 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>17:21</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>00:08</t>
+          <t>03:42</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>45</v>
       </c>
       <c r="I43" t="n">
-        <v>10.11</v>
+        <v>10.36</v>
       </c>
       <c r="J43" t="n">
-        <v>9.359999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4381,7 +4453,7 @@
         <v>900</v>
       </c>
       <c r="N43" t="n">
-        <v>954.65</v>
+        <v>991.46</v>
       </c>
     </row>
     <row r="44">
@@ -4407,30 +4479,30 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>45</v>
       </c>
       <c r="I44" t="n">
-        <v>10.4</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>9.65</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>0.65</v>
+        <v>0.11</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4441,7 +4513,7 @@
         <v>700</v>
       </c>
       <c r="N44" t="n">
-        <v>775.99</v>
+        <v>712.92</v>
       </c>
     </row>
     <row r="45">
@@ -4467,27 +4539,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>20:41</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>45</v>
       </c>
       <c r="I45" t="n">
-        <v>9.390000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>8.640000000000001</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4527,30 +4599,30 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>21:13</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>45</v>
       </c>
       <c r="I46" t="n">
-        <v>10.08</v>
+        <v>10.2</v>
       </c>
       <c r="J46" t="n">
-        <v>9.33</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4561,7 +4633,7 @@
         <v>500</v>
       </c>
       <c r="N46" t="n">
-        <v>527.1799999999999</v>
+        <v>537.2</v>
       </c>
     </row>
     <row r="47">
@@ -4592,36 +4664,36 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>01:52</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I47" t="n">
-        <v>8.859999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
-        <v>8.109999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>500</v>
       </c>
       <c r="N47" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
@@ -4647,30 +4719,30 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03:28</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>45</v>
       </c>
       <c r="I48" t="n">
-        <v>10.37</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>9.619999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4681,7 +4753,7 @@
         <v>800</v>
       </c>
       <c r="N48" t="n">
-        <v>882.22</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49">
@@ -4707,30 +4779,30 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>17:21</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>03:08</t>
+          <t>20:36</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>45</v>
       </c>
       <c r="I49" t="n">
-        <v>9.789999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>9.039999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4741,7 +4813,7 @@
         <v>1500</v>
       </c>
       <c r="N49" t="n">
-        <v>1511</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50">
@@ -4772,25 +4844,25 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22:57</t>
+          <t>00:31</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>45</v>
       </c>
       <c r="I50" t="n">
-        <v>8.66</v>
+        <v>10.35</v>
       </c>
       <c r="J50" t="n">
-        <v>7.91</v>
+        <v>9.6</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4801,7 +4873,7 @@
         <v>500</v>
       </c>
       <c r="N50" t="n">
-        <v>500</v>
+        <v>550.08</v>
       </c>
     </row>
     <row r="51">
@@ -4827,30 +4899,30 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>00:23</t>
+          <t>21:26</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>45</v>
       </c>
       <c r="I51" t="n">
-        <v>10.05</v>
+        <v>10.35</v>
       </c>
       <c r="J51" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4861,7 +4933,7 @@
         <v>500</v>
       </c>
       <c r="N51" t="n">
-        <v>525.39</v>
+        <v>549.74</v>
       </c>
     </row>
     <row r="52">
@@ -4892,22 +4964,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02:55</t>
+          <t>02:47</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>45</v>
       </c>
       <c r="I52" t="n">
-        <v>9.51</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>8.76</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4947,27 +5019,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02:43</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>9.619999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>8.869999999999999</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -5007,30 +5079,30 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>17:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21:24</t>
+          <t>03:37</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>45</v>
       </c>
       <c r="I54" t="n">
-        <v>10.23</v>
+        <v>10.42</v>
       </c>
       <c r="J54" t="n">
-        <v>9.48</v>
+        <v>9.67</v>
       </c>
       <c r="K54" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -5041,7 +5113,7 @@
         <v>700</v>
       </c>
       <c r="N54" t="n">
-        <v>755.87</v>
+        <v>777.84</v>
       </c>
     </row>
     <row r="55">
@@ -5072,22 +5144,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02:02</t>
+          <t>01:57</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>45</v>
       </c>
       <c r="I55" t="n">
-        <v>8.609999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>7.86</v>
+        <v>7.88</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5127,41 +5199,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02:56</t>
+          <t>15:48</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I56" t="n">
-        <v>9.52</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
-        <v>8.77</v>
+        <v>4.25</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>500</v>
       </c>
       <c r="N56" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57">
@@ -5187,27 +5259,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23:34</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>45</v>
       </c>
       <c r="I57" t="n">
-        <v>9.44</v>
+        <v>8.58</v>
       </c>
       <c r="J57" t="n">
-        <v>8.69</v>
+        <v>7.83</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5247,27 +5319,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>07:26</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02:42</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>45</v>
       </c>
       <c r="I58" t="n">
-        <v>9.32</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>8.57</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5312,25 +5384,25 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>00:07</t>
+          <t>23:03</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>45</v>
       </c>
       <c r="I59" t="n">
-        <v>9.91</v>
+        <v>8.66</v>
       </c>
       <c r="J59" t="n">
-        <v>9.16</v>
+        <v>7.91</v>
       </c>
       <c r="K59" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -5341,7 +5413,7 @@
         <v>1500</v>
       </c>
       <c r="N59" t="n">
-        <v>1539.57</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60">
@@ -5367,30 +5439,30 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>07:18</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>20:19</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>45</v>
       </c>
       <c r="I60" t="n">
-        <v>9.98</v>
+        <v>9.26</v>
       </c>
       <c r="J60" t="n">
-        <v>9.23</v>
+        <v>8.51</v>
       </c>
       <c r="K60" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -5401,7 +5473,7 @@
         <v>500</v>
       </c>
       <c r="N60" t="n">
-        <v>519.11</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61">
@@ -5427,30 +5499,30 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>03:14</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>45</v>
       </c>
       <c r="I61" t="n">
-        <v>10.14</v>
+        <v>10.01</v>
       </c>
       <c r="J61" t="n">
-        <v>9.390000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="K61" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5461,7 +5533,7 @@
         <v>500</v>
       </c>
       <c r="N61" t="n">
-        <v>532.3200000000001</v>
+        <v>521.87</v>
       </c>
     </row>
     <row r="62">
@@ -5487,41 +5559,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>20:50</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="J62" t="n">
-        <v>4.25</v>
+        <v>8.75</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>1200</v>
       </c>
       <c r="N62" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63">
@@ -5552,25 +5624,25 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>00:32</t>
+          <t>00:17</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>45</v>
       </c>
       <c r="I63" t="n">
-        <v>10.37</v>
+        <v>10.22</v>
       </c>
       <c r="J63" t="n">
-        <v>9.619999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5581,7 +5653,7 @@
         <v>900</v>
       </c>
       <c r="N63" t="n">
-        <v>992.73</v>
+        <v>970.96</v>
       </c>
     </row>
     <row r="64">
@@ -5607,27 +5679,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>22:54</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>45</v>
       </c>
       <c r="I64" t="n">
-        <v>9.32</v>
+        <v>8.52</v>
       </c>
       <c r="J64" t="n">
-        <v>8.57</v>
+        <v>7.77</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -5667,27 +5739,27 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>23:45</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>45</v>
       </c>
       <c r="I65" t="n">
-        <v>9.49</v>
+        <v>9.67</v>
       </c>
       <c r="J65" t="n">
-        <v>8.74</v>
+        <v>8.92</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -5732,25 +5804,25 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03:40</t>
+          <t>02:42</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>45</v>
       </c>
       <c r="I66" t="n">
-        <v>10.23</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>9.48</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5761,7 +5833,7 @@
         <v>500</v>
       </c>
       <c r="N66" t="n">
-        <v>539.92</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67">
@@ -5792,22 +5864,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>45</v>
       </c>
       <c r="I67" t="n">
-        <v>9.529999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>8.779999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5852,25 +5924,25 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03:37</t>
+          <t>02:49</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>10.29</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>9.539999999999999</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5881,7 +5953,7 @@
         <v>800</v>
       </c>
       <c r="N68" t="n">
-        <v>872.27</v>
+        <v>800</v>
       </c>
     </row>
     <row r="69">
@@ -5907,27 +5979,27 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20:11</t>
+          <t>23:13</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>45</v>
       </c>
       <c r="I69" t="n">
-        <v>9.02</v>
+        <v>9.09</v>
       </c>
       <c r="J69" t="n">
-        <v>8.27</v>
+        <v>8.34</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -5967,27 +6039,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>23:41</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>45</v>
       </c>
       <c r="I70" t="n">
-        <v>9.69</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>8.94</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6027,41 +6099,41 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>9.16</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>8.41</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>500</v>
       </c>
       <c r="N71" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sky5_Kitchen_Admin_Kit.xlsx
+++ b/Sky5_Kitchen_Admin_Kit.xlsx
@@ -1959,27 +1959,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02:33</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>9.449999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2019,30 +2019,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23:57</t>
+          <t>20:38</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>9.869999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>9.119999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="n">
-        <v>918.25</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -2079,41 +2079,41 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>700</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5">
@@ -2139,41 +2139,41 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>07:08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>8.58</v>
       </c>
       <c r="J5" t="n">
-        <v>4.25</v>
+        <v>7.83</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>600</v>
       </c>
       <c r="N5" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -2199,30 +2199,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19:59</t>
+          <t>00:25</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>8.529999999999999</v>
+        <v>10.33</v>
       </c>
       <c r="J6" t="n">
-        <v>7.78</v>
+        <v>9.58</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>500</v>
       </c>
       <c r="N6" t="n">
-        <v>500</v>
+        <v>548.6</v>
       </c>
     </row>
     <row r="7">
@@ -2259,41 +2259,41 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>8.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.25</v>
+        <v>8.15</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01:38</t>
+          <t>00:35</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>45</v>
       </c>
       <c r="I8" t="n">
-        <v>8.52</v>
+        <v>10.1</v>
       </c>
       <c r="J8" t="n">
-        <v>7.77</v>
+        <v>9.35</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>800</v>
       </c>
       <c r="N8" t="n">
-        <v>800</v>
+        <v>847.05</v>
       </c>
     </row>
     <row r="9">
@@ -2384,25 +2384,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>00:21</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>8.640000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="J9" t="n">
-        <v>7.89</v>
+        <v>9.24</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>1500</v>
       </c>
       <c r="N9" t="n">
-        <v>1500</v>
+        <v>1561.04</v>
       </c>
     </row>
     <row r="10">
@@ -2439,30 +2439,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>21:31</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>8.960000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="J10" t="n">
-        <v>8.210000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>500</v>
       </c>
       <c r="N10" t="n">
-        <v>500</v>
+        <v>525.5</v>
       </c>
     </row>
     <row r="11">
@@ -2499,30 +2499,30 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03:29</t>
+          <t>00:02</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>10.01</v>
+        <v>9.67</v>
       </c>
       <c r="J11" t="n">
-        <v>9.26</v>
+        <v>8.92</v>
       </c>
       <c r="K11" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>500</v>
       </c>
       <c r="N11" t="n">
-        <v>521.49</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
@@ -2559,41 +2559,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18:36</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>10.46</v>
       </c>
       <c r="J12" t="n">
-        <v>4.25</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1200</v>
       </c>
       <c r="N12" t="n">
-        <v>600</v>
+        <v>1342.93</v>
       </c>
     </row>
     <row r="13">
@@ -2619,30 +2619,30 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03:51</t>
+          <t>21:40</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>45</v>
       </c>
       <c r="I13" t="n">
-        <v>10.37</v>
+        <v>10.35</v>
       </c>
       <c r="J13" t="n">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>900</v>
       </c>
       <c r="N13" t="n">
-        <v>993.13</v>
+        <v>990.17</v>
       </c>
     </row>
     <row r="14">
@@ -2679,27 +2679,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22:53</t>
+          <t>19:53</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>8.529999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>7.78</v>
+        <v>7.86</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -2739,27 +2739,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>45</v>
       </c>
       <c r="I15" t="n">
-        <v>8.59</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>7.84</v>
+        <v>7.89</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2799,27 +2799,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>07:25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23:40</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>9.66</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>8.91</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2859,30 +2859,30 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23:07</t>
+          <t>17:42</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>45</v>
       </c>
       <c r="I17" t="n">
-        <v>8.91</v>
+        <v>10.3</v>
       </c>
       <c r="J17" t="n">
-        <v>8.16</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>500</v>
       </c>
       <c r="N17" t="n">
-        <v>500</v>
+        <v>546.0700000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2919,41 +2919,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>4.25</v>
+        <v>7.88</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>800</v>
       </c>
       <c r="N18" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19">
@@ -2979,41 +2979,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03:16</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10.16</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.41</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1500</v>
       </c>
       <c r="N19" t="n">
-        <v>1603.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3039,30 +3039,30 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>19:51</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>45</v>
       </c>
       <c r="I20" t="n">
-        <v>10.4</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>9.65</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>500</v>
       </c>
       <c r="N20" t="n">
-        <v>554.48</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -3099,30 +3099,30 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>07:26</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>02:19</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>9.880000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="J21" t="n">
-        <v>9.130000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="K21" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>500</v>
       </c>
       <c r="N21" t="n">
-        <v>510.55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22">
@@ -3159,30 +3159,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>22:53</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>10.1</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>9.35</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>1200</v>
       </c>
       <c r="N22" t="n">
-        <v>1270.75</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23">
@@ -3219,27 +3219,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02:40</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>45</v>
       </c>
       <c r="I23" t="n">
-        <v>9.460000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="J23" t="n">
-        <v>8.710000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3279,41 +3279,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>700</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25">
@@ -3344,22 +3344,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23:31</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>9.51</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>8.76</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -3399,30 +3399,30 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03:36</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>45</v>
       </c>
       <c r="I26" t="n">
-        <v>10.44</v>
+        <v>10.09</v>
       </c>
       <c r="J26" t="n">
-        <v>9.69</v>
+        <v>9.34</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>500</v>
       </c>
       <c r="N26" t="n">
-        <v>557.86</v>
+        <v>528.48</v>
       </c>
     </row>
     <row r="27">
@@ -3459,41 +3459,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.84</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>8.09</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>500</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28">
@@ -3519,30 +3519,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>03:33</t>
+          <t>22:43</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>45</v>
       </c>
       <c r="I28" t="n">
-        <v>10.39</v>
+        <v>8.66</v>
       </c>
       <c r="J28" t="n">
-        <v>9.640000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="K28" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>800</v>
       </c>
       <c r="N28" t="n">
-        <v>885.73</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29">
@@ -3584,25 +3584,25 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>22:38</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>45</v>
       </c>
       <c r="I29" t="n">
-        <v>9.890000000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>9.140000000000001</v>
+        <v>7.86</v>
       </c>
       <c r="K29" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>1500</v>
       </c>
       <c r="N29" t="n">
-        <v>1534.34</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>07:24</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>21:44</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>45</v>
       </c>
       <c r="I30" t="n">
-        <v>10.04</v>
+        <v>10.3</v>
       </c>
       <c r="J30" t="n">
-        <v>9.289999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>500</v>
       </c>
       <c r="N30" t="n">
-        <v>523.8</v>
+        <v>545.8</v>
       </c>
     </row>
     <row r="31">
@@ -3699,41 +3699,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>8.710000000000001</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7.96</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>500</v>
       </c>
       <c r="N31" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3764,25 +3764,25 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>07:17</t>
+          <t>07:25</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>45</v>
       </c>
       <c r="I32" t="n">
-        <v>9.880000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>9.130000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>1200</v>
       </c>
       <c r="N32" t="n">
-        <v>1225.98</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33">
@@ -3819,30 +3819,30 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>07:26</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>20:08</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>45</v>
       </c>
       <c r="I33" t="n">
-        <v>10.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>9.6</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>900</v>
       </c>
       <c r="N33" t="n">
-        <v>989.42</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34">
@@ -3884,36 +3884,36 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>00:22</t>
+          <t>18:53</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I34" t="n">
-        <v>10.06</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
-        <v>9.31</v>
+        <v>4.25</v>
       </c>
       <c r="K34" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>700</v>
       </c>
       <c r="N34" t="n">
-        <v>735.79</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
@@ -3944,36 +3944,36 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21:54</t>
+          <t>02:07</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>8.82</v>
       </c>
       <c r="J35" t="n">
-        <v>4.25</v>
+        <v>8.07</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>600</v>
       </c>
       <c r="N35" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36">
@@ -3999,27 +3999,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23:52</t>
+          <t>02:33</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>45</v>
       </c>
       <c r="I36" t="n">
-        <v>9.699999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="J36" t="n">
-        <v>8.949999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -4059,30 +4059,30 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>07:11</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>00:02</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>45</v>
       </c>
       <c r="I37" t="n">
-        <v>10.47</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>9.720000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>500</v>
       </c>
       <c r="N37" t="n">
-        <v>559.88</v>
+        <v>503.1</v>
       </c>
     </row>
     <row r="38">
@@ -4119,17 +4119,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>07:18</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>18:48</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -4184,36 +4184,36 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>02:26</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>4.25</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>1500</v>
       </c>
       <c r="N39" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40">
@@ -4239,41 +4239,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14:26</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18:56</t>
+          <t>19:53</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>8.68</v>
       </c>
       <c r="J40" t="n">
-        <v>4.25</v>
+        <v>7.93</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>500</v>
       </c>
       <c r="N40" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41">
@@ -4299,41 +4299,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20:46</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>8.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>500</v>
       </c>
       <c r="N41" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4359,41 +4359,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>03:37</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>10.22</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="n">
-        <v>9.470000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="K42" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1200</v>
       </c>
       <c r="N42" t="n">
-        <v>1294.15</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -4419,30 +4419,30 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>17:21</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03:42</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>45</v>
       </c>
       <c r="I43" t="n">
-        <v>10.36</v>
+        <v>9.25</v>
       </c>
       <c r="J43" t="n">
-        <v>9.609999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="K43" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>900</v>
       </c>
       <c r="N43" t="n">
-        <v>991.46</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44">
@@ -4484,25 +4484,25 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>45</v>
       </c>
       <c r="I44" t="n">
-        <v>9.859999999999999</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>9.109999999999999</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>700</v>
       </c>
       <c r="N44" t="n">
-        <v>712.92</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45">
@@ -4544,22 +4544,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20:41</t>
+          <t>20:11</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>45</v>
       </c>
       <c r="I45" t="n">
-        <v>9.289999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>8.539999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4599,30 +4599,30 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21:13</t>
+          <t>03:27</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>45</v>
       </c>
       <c r="I46" t="n">
-        <v>10.2</v>
+        <v>10.45</v>
       </c>
       <c r="J46" t="n">
-        <v>9.449999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>500</v>
       </c>
       <c r="N46" t="n">
-        <v>537.2</v>
+        <v>558.5700000000001</v>
       </c>
     </row>
     <row r="47">
@@ -4659,41 +4659,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>4.25</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Half Day</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>500</v>
       </c>
       <c r="N47" t="n">
-        <v>250</v>
+        <v>509.68</v>
       </c>
     </row>
     <row r="48">
@@ -4719,41 +4719,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>21:49</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I48" t="n">
-        <v>8.869999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J48" t="n">
-        <v>8.119999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>800</v>
       </c>
       <c r="N48" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
@@ -4779,30 +4779,30 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20:36</t>
+          <t>02:55</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>45</v>
       </c>
       <c r="I49" t="n">
-        <v>9.369999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="J49" t="n">
-        <v>8.619999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>1500</v>
       </c>
       <c r="N49" t="n">
-        <v>1500</v>
+        <v>1537.66</v>
       </c>
     </row>
     <row r="50">
@@ -4839,41 +4839,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>00:31</t>
+          <t>21:56</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I50" t="n">
-        <v>10.35</v>
+        <v>4.5</v>
       </c>
       <c r="J50" t="n">
-        <v>9.6</v>
+        <v>4.25</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>500</v>
       </c>
       <c r="N50" t="n">
-        <v>550.08</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
@@ -4904,25 +4904,25 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21:26</t>
+          <t>19:52</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>45</v>
       </c>
       <c r="I51" t="n">
-        <v>10.35</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>9.6</v>
+        <v>7.88</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>500</v>
       </c>
       <c r="N51" t="n">
-        <v>549.74</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52">
@@ -4959,30 +4959,30 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02:47</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>45</v>
       </c>
       <c r="I52" t="n">
-        <v>9.699999999999999</v>
+        <v>10.18</v>
       </c>
       <c r="J52" t="n">
-        <v>8.949999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>1200</v>
       </c>
       <c r="N52" t="n">
-        <v>1200</v>
+        <v>1285.28</v>
       </c>
     </row>
     <row r="53">
@@ -5024,22 +5024,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>9.470000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="J53" t="n">
-        <v>8.720000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -5079,30 +5079,30 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>17:12</t>
+          <t>07:08</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03:37</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>45</v>
       </c>
       <c r="I54" t="n">
-        <v>10.42</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>9.67</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>700</v>
       </c>
       <c r="N54" t="n">
-        <v>777.84</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55">
@@ -5139,27 +5139,27 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01:57</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>45</v>
       </c>
       <c r="I55" t="n">
-        <v>8.630000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5199,17 +5199,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15:48</t>
+          <t>18:53</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -5259,27 +5259,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>45</v>
       </c>
       <c r="I57" t="n">
-        <v>8.58</v>
+        <v>9.43</v>
       </c>
       <c r="J57" t="n">
-        <v>7.83</v>
+        <v>8.68</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5319,41 +5319,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>07:26</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>9.710000000000001</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>8.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>800</v>
       </c>
       <c r="N58" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5379,27 +5379,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 2 (Day)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23:03</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>45</v>
       </c>
       <c r="I59" t="n">
-        <v>8.66</v>
+        <v>9.74</v>
       </c>
       <c r="J59" t="n">
-        <v>7.91</v>
+        <v>8.99</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5439,41 +5439,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20:19</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I60" t="n">
-        <v>9.26</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>8.51</v>
+        <v>4.25</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>500</v>
       </c>
       <c r="N60" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61">
@@ -5499,30 +5499,30 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>03:09</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>45</v>
       </c>
       <c r="I61" t="n">
-        <v>10.01</v>
+        <v>9.84</v>
       </c>
       <c r="J61" t="n">
-        <v>9.26</v>
+        <v>9.09</v>
       </c>
       <c r="K61" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>500</v>
       </c>
       <c r="N61" t="n">
-        <v>521.87</v>
+        <v>507.57</v>
       </c>
     </row>
     <row r="62">
@@ -5559,30 +5559,30 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Shift 2 (Day)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20:50</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>45</v>
       </c>
       <c r="I62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>1200</v>
       </c>
       <c r="N62" t="n">
-        <v>1200</v>
+        <v>1250.61</v>
       </c>
     </row>
     <row r="63">
@@ -5619,30 +5619,30 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>00:17</t>
+          <t>02:34</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>45</v>
       </c>
       <c r="I63" t="n">
-        <v>10.22</v>
+        <v>9.24</v>
       </c>
       <c r="J63" t="n">
-        <v>9.470000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="K63" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>900</v>
       </c>
       <c r="N63" t="n">
-        <v>970.96</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64">
@@ -5684,36 +5684,36 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22:54</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I64" t="n">
-        <v>8.52</v>
+        <v>4.5</v>
       </c>
       <c r="J64" t="n">
-        <v>7.77</v>
+        <v>4.25</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>700</v>
       </c>
       <c r="N64" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65">
@@ -5739,27 +5739,27 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23:45</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>45</v>
       </c>
       <c r="I65" t="n">
-        <v>9.67</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>8.92</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -5799,30 +5799,30 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02:42</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>45</v>
       </c>
       <c r="I66" t="n">
-        <v>9.369999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="J66" t="n">
-        <v>8.619999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>500</v>
       </c>
       <c r="N66" t="n">
-        <v>500</v>
+        <v>500.58</v>
       </c>
     </row>
     <row r="67">
@@ -5859,27 +5859,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Shift 1 (Morning)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>45</v>
       </c>
       <c r="I67" t="n">
-        <v>9.029999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="J67" t="n">
-        <v>8.279999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5919,30 +5919,30 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Shift 4 (Night)</t>
+          <t>Shift 3 (Evening)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02:49</t>
+          <t>23:49</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>9.539999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="J68" t="n">
-        <v>8.789999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>800</v>
       </c>
       <c r="N68" t="n">
-        <v>800</v>
+        <v>808.65</v>
       </c>
     </row>
     <row r="69">
@@ -5979,30 +5979,30 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Shift 3 (Evening)</t>
+          <t>Shift 4 (Night)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23:13</t>
+          <t>03:19</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>45</v>
       </c>
       <c r="I69" t="n">
-        <v>9.09</v>
+        <v>10.08</v>
       </c>
       <c r="J69" t="n">
-        <v>8.34</v>
+        <v>9.33</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>1500</v>
       </c>
       <c r="N69" t="n">
-        <v>1500</v>
+        <v>1582.42</v>
       </c>
     </row>
     <row r="70">
@@ -6044,22 +6044,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23:41</t>
+          <t>00:02</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>45</v>
       </c>
       <c r="I70" t="n">
-        <v>9.390000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="J70" t="n">
-        <v>8.640000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6099,41 +6099,41 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shift 1 (Morning)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Half Day</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>500</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
